--- a/radiator calculator.xlsx
+++ b/radiator calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5E4016-5E57-4B06-9C34-91463BBACCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F66E9C-3791-4C1A-8B8F-5E96D6B9D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43560" yWindow="495" windowWidth="26655" windowHeight="14430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,15 @@
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
     <sheet name="RadiatorDatabase" sheetId="2" r:id="rId2"/>
     <sheet name="Rooms" sheetId="9" r:id="rId3"/>
-    <sheet name="test" sheetId="11" r:id="rId4"/>
-    <sheet name="Examples" sheetId="6" r:id="rId5"/>
-    <sheet name="Design" sheetId="7" r:id="rId6"/>
-    <sheet name="Tabular" sheetId="3" r:id="rId7"/>
-    <sheet name="Form" sheetId="13" r:id="rId8"/>
-    <sheet name="RadReplacementStrategy" sheetId="14" r:id="rId9"/>
+    <sheet name="Examples" sheetId="6" r:id="rId4"/>
+    <sheet name="Design" sheetId="7" r:id="rId5"/>
+    <sheet name="Tabular" sheetId="3" r:id="rId6"/>
+    <sheet name="Form" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FlowRateScenario">Table5[#All]</definedName>
     <definedName name="LabourCosts">Table4[#All]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Form!$A:$G</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Form!$A:$G</definedName>
     <definedName name="RoomEmittersMaxSizes">Table3[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -64,7 +62,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -75,7 +73,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
@@ -86,13 +91,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -101,6 +113,12 @@
     </bk>
     <bk>
       <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -368,9 +386,7 @@
  </code>
     </pythonScript>
     <pythonScript>
-      <code xml:space="preserve">
-#=======================================================================================================
-def load_dataframes_from_excel():
+      <code xml:space="preserve">def load_dataframes_from_excel():
     rad_db = xl(%P2%, headers=True)
     rooms = xl(%P3%, headers=True)
     max_sizes = xl(%P4%, headers=True)
@@ -379,19 +395,17 @@
     return rad_db, rooms, max_sizes, labour_costs, flow_rate_scenario
 rad_db, rooms, max_sizes, labour_costs, flow_rate_scenario = load_dataframes_from_excel()
 home = Home(rooms, max_sizes, rad_db)
-flow_temperature = xl(%P7%)
-print("Got here")
-results = home.minimal_cost_radiators(flow_temperature)
-print("And here")
-results
 </code>
+    </pythonScript>
+    <pythonScript>
+      <code>home.minimal_cost_radiators(xl(%P2%))</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="110">
   <si>
     <t>K1</t>
   </si>
@@ -675,165 +689,6 @@
     <t>FlowRate</t>
   </si>
   <si>
-    <t>Rad @ 55FT</t>
-  </si>
-  <si>
-    <t>Rad @ 50FT</t>
-  </si>
-  <si>
-    <t>Rad @ 45FT</t>
-  </si>
-  <si>
-    <t>Rad @ 40FT</t>
-  </si>
-  <si>
-    <t>Rad @ 35FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                645.9536480916148
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                451.3802466347125
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                360.54416027213864
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                274.7317341310722
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                194.74573581005535
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x600x450:
-                NA-
-                £68.5-
-                £50-
-                121.79964487125997
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                2447.2460203519504
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                1710.0894398627383
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                1365.9498076895848
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                1040.8427059789587
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                737.8094826922875
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x1800x600:
-                NA-
-                £198.04-
-                £50-
-                461.4475002534491
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                942.787110202426
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                677.1898584697104
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                552.4770508290045
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                433.97182213418563
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                322.545224837744
-                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModernxK2x800x450:
-                NA-
-                £79.19-
-                £50-
-                219.4441586125635
-                </t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -841,39 +696,6 @@
   </si>
   <si>
     <t>ModernxK2x1200x600</t>
-  </si>
-  <si>
-    <t>Existing Rad 1</t>
-  </si>
-  <si>
-    <t>Space 1</t>
-  </si>
-  <si>
-    <t>1000W £50</t>
-  </si>
-  <si>
-    <t>2000W £400</t>
-  </si>
-  <si>
-    <t>500W £60</t>
-  </si>
-  <si>
-    <t>1200W £40</t>
-  </si>
-  <si>
-    <t>4000W £400</t>
-  </si>
-  <si>
-    <t>Loop through this rad 1st</t>
-  </si>
-  <si>
-    <t>Find Rad 2 which has &gt; W`</t>
-  </si>
-  <si>
-    <t>Existing Rad 2</t>
-  </si>
-  <si>
-    <t>Find Space 1 with &gt; W or zero</t>
   </si>
   <si>
     <t>Depth</t>
@@ -910,6 +732,9 @@
   </si>
   <si>
     <t>Loc3</t>
+  </si>
+  <si>
+    <t>Load Tables</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1153,8 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="5" c="9">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="7" c="9">
     <v t="s"/>
     <v t="s">Room Name</v>
     <v t="s">Location name</v>
@@ -1370,17 +1195,100 @@
     <v t="s">Dining</v>
     <v t="s">Loc1</v>
     <v t="s">ModernxK2x800x450</v>
+    <v t="s">ModernxK2x1400x600</v>
+    <v>154.06</v>
+    <v>95</v>
+    <v t="s">Replaced</v>
+    <v>1114.7647804363507</v>
+    <v>4</v>
+    <v t="s">Bed 1</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x800x450</v>
     <v t="s">ModernxK2x1200x600</v>
     <v>119.57</v>
     <v>95</v>
     <v t="s">Replaced</v>
-    <v>955.24998505020085</v>
+    <v>1046.5335566296003</v>
+    <v>5</v>
+    <v t="s">Bath 1</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x800x450</v>
+    <v t="s">ModernxK2x1400x600</v>
+    <v>154.06</v>
+    <v>95</v>
+    <v t="s">Replaced</v>
+    <v>1010.538750674492</v>
+  </a>
+  <a r="7" c="9">
+    <v t="s"/>
+    <v t="s">Room Name</v>
+    <v t="s">Location name</v>
+    <v t="s">Originally</v>
+    <v t="s">Proposed Radiator</v>
+    <v t="s">£</v>
+    <v t="s">Labour Cost</v>
+    <v t="s">Status</v>
+    <v t="s">Watts</v>
+    <v>0</v>
+    <v t="s">Lounge</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x600x450</v>
+    <v t="s">ModernxK2x600x450</v>
+    <v>0</v>
+    <v>0</v>
+    <v t="s">Original</v>
+    <v>194.74573581005535</v>
+    <v>1</v>
+    <v t="s">Lounge</v>
+    <v t="s">Loc2</v>
+    <v t="s">ModernxK2x1200x600</v>
+    <v t="s">ModernxK2x1200x600</v>
+    <v>0</v>
+    <v>0</v>
+    <v t="s">Original</v>
+    <v>491.71523573911912</v>
+    <v>2</v>
+    <v t="s">Lounge</v>
+    <v t="s">Loc3</v>
+    <v t="r">0</v>
+    <v t="s">ModernxK2x1200x700</v>
+    <v>198.48</v>
+    <v>300</v>
+    <v t="s">Replaced</v>
+    <v>556.78823373154341</v>
+    <v>3</v>
+    <v t="s">Dining</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x800x450</v>
+    <v t="s">ModernxK3x1800x600</v>
+    <v>469</v>
+    <v>95</v>
+    <v t="s">Replaced</v>
+    <v>1098.3908672589328</v>
+    <v>4</v>
+    <v t="s">Bed 1</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x800x450</v>
+    <v t="s">ModernxK2x2000x600</v>
+    <v>303.12</v>
+    <v>95</v>
+    <v t="s">Replaced</v>
+    <v>1018.5019679470787</v>
+    <v>5</v>
+    <v t="s">Bath 1</v>
+    <v t="s">Loc1</v>
+    <v t="s">ModernxK2x800x450</v>
+    <v t="s">ModernxK2x2000x600</v>
+    <v>303.12</v>
+    <v>95</v>
+    <v t="s">Replaced</v>
+    <v>755.697673733648</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <rv s="0">
     <fb>0</fb>
     <v>0</v>
@@ -1394,12 +1302,18 @@
     <v>1</v>
   </rv>
   <rv s="2">
+    <v>&lt;class '__main__.Home'&gt;</v>
+    <v>Home</v>
+    <v>&lt;__main__.Home object at 0x7f32eb341340&gt;</v>
+    <v>1</v>
+  </rv>
+  <rv s="3">
     <v>0</v>
   </rv>
-  <rv s="3">
+  <rv s="4">
     <v>DataFrame</v>
     <v>3</v>
-    <v>2</v>
+    <v>3</v>
   </rv>
   <rv s="1">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
@@ -1408,14 +1322,32 @@
 0    Lounge          Loc1   ModernxK2x600x450   ModernxK2x600x450    0.00   
 1    Lounge          Loc2  ModernxK2x1200x600  ModernxK2x1200x600    0.00   
 2    Lounge          ...</v>
+    <v>4</v>
+    <v>1</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>DataFrame</v>
     <v>3</v>
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">  Room Name Location name          Originally   Proposed Radiator       £  \
+0    Lounge          Loc1   ModernxK2x600x450   ModernxK2x600x450    0.00   
+1    Lounge          Loc2  ModernxK2x1200x600  ModernxK2x1200x600    0.00   
+2    Lounge          ...</v>
+    <v>7</v>
     <v>1</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
   </s>
@@ -1424,6 +1356,12 @@
     <k n="Python_typeName" t="s"/>
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
     <k n="_Provider" t="spb"/>
   </s>
   <s t="_array">
@@ -1449,7 +1387,7 @@
       <v>Python provided by Anaconda</v>
     </spb>
     <spb s="2">
-      <v>4</v>
+      <v>6</v>
       <v>8</v>
       <v>DataFrame</v>
       <v>arrayPreview</v>
@@ -1533,8 +1471,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{570897E6-0B07-42F1-B411-FB58D6817A44}" name="Table3" displayName="Table3" ref="E1:M5" totalsRowShown="0">
-  <autoFilter ref="E1:M5" xr:uid="{570897E6-0B07-42F1-B411-FB58D6817A44}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{570897E6-0B07-42F1-B411-FB58D6817A44}" name="Table3" displayName="Table3" ref="E1:M7" totalsRowShown="0">
+  <autoFilter ref="E1:M7" xr:uid="{570897E6-0B07-42F1-B411-FB58D6817A44}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D800A84A-07CB-4911-96AE-EAFD0F8CAE30}" name="Room Name"/>
     <tableColumn id="10" xr3:uid="{CF65C992-0CA1-4F09-9DED-4750959DD52A}" name="Location"/>
@@ -1551,8 +1489,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{617FE319-FEA4-4FD1-9A4E-11D892AB84BD}" name="Table4" displayName="Table4" ref="E14:F18" totalsRowShown="0">
-  <autoFilter ref="E14:F18" xr:uid="{617FE319-FEA4-4FD1-9A4E-11D892AB84BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{617FE319-FEA4-4FD1-9A4E-11D892AB84BD}" name="Table4" displayName="Table4" ref="P1:Q5" totalsRowShown="0">
+  <autoFilter ref="P1:Q5" xr:uid="{617FE319-FEA4-4FD1-9A4E-11D892AB84BD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{ECF6E62E-BB01-4FD4-839D-CAB76FE7AFEA}" name="Labour Type"/>
     <tableColumn id="2" xr3:uid="{19D99575-9A42-46DE-85F3-BFB8A4F67596}" name="Cost" dataDxfId="0"/>
@@ -1876,13 +1814,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -6046,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28468E-1C96-4244-AAD3-D4DE1A24BCD5}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6074,13 +6012,13 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -6092,16 +6030,22 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
         <v>75</v>
       </c>
       <c r="M1" t="s">
         <v>76</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>85</v>
       </c>
       <c r="S1" t="s">
         <v>76</v>
@@ -6121,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="G2">
         <v>1200</v>
@@ -6143,6 +6087,12 @@
       </c>
       <c r="M2" t="s">
         <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>50</v>
       </c>
       <c r="S2" t="s">
         <v>77</v>
@@ -6162,7 +6112,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="G3">
         <v>2000</v>
@@ -6177,13 +6127,19 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
         <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>100</v>
       </c>
       <c r="S3" t="s">
         <v>78</v>
@@ -6203,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <v>1200</v>
@@ -6218,10 +6174,16 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="M4" t="s">
         <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>250</v>
       </c>
       <c r="S4" t="s">
         <v>79</v>
@@ -6241,10 +6203,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="G5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -6253,7 +6215,7 @@
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>95</v>
@@ -6264,8 +6226,72 @@
       <c r="M5" t="s">
         <v>79</v>
       </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
       <c r="S5" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>600</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
@@ -6273,12 +6299,6 @@
       <c r="J10" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
       <c r="H14" t="s">
         <v>92</v>
       </c>
@@ -6287,12 +6307,6 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="1">
-        <v>50</v>
-      </c>
       <c r="H15" t="s">
         <v>91</v>
       </c>
@@ -6301,12 +6315,6 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="1">
-        <v>100</v>
-      </c>
       <c r="H16" t="str">
         <f>"Rad @ "&amp;I16&amp;"FT"</f>
         <v>Rad @ 55FT</v>
@@ -6316,12 +6324,6 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="1">
-        <v>250</v>
-      </c>
       <c r="H17" t="str">
         <f>"Rad @ "&amp;I17&amp;"FT"</f>
         <v>Rad @ 50FT</v>
@@ -6331,12 +6333,6 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
       <c r="H18" t="str">
         <f>"Rad @ "&amp;I18&amp;"FT"</f>
         <v>Rad @ 45FT</v>
@@ -6365,7 +6361,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B25" cm="1" vm="1">
         <f t="array" ref="B25">_xlfn._xlws.PY(0,1)</f>
@@ -6374,7 +6370,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B26" cm="1" vm="1">
         <f t="array" ref="B26">_xlfn._xlws.PY(1,1)</f>
@@ -6383,7 +6379,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B27" cm="1" vm="1">
         <f t="array" ref="B27">_xlfn._xlws.PY(2,1)</f>
@@ -6392,94 +6388,74 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B28" cm="1" vm="1">
         <f t="array" ref="B28">_xlfn._xlws.PY(3,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" t="e" cm="1" vm="2">
-        <f t="array" ref="A30">_xlfn._xlws.PY(4,1,RadiatorDatabase[#All],Rooms[#All],RoomEmittersMaxSizes,LabourCosts,FlowRateScenario,A31)</f>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="e" cm="1" vm="2">
+        <f t="array" ref="B29">_xlfn._xlws.PY(4,1,RadiatorDatabase[#All],Rooms[#All],RoomEmittersMaxSizes,LabourCosts,FlowRateScenario)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B30" t="str" cm="1">
-        <f t="array" ref="B30:J34">_FV(A30,"arrayPreview")</f>
-        <v/>
-      </c>
-      <c r="C30" t="str">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" t="e" cm="1" vm="3">
+        <f t="array" ref="A31">_xlfn._xlws.PY(5,1,A32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31:J37">_FV(A31,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C31" t="str">
         <v>Room Name</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <v>Location name</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E31" t="str">
         <v>Originally</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F31" t="str">
         <v>Proposed Radiator</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G31" t="str">
         <v>£</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H31" t="str">
         <v>Labour Cost</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I31" t="str">
         <v>Status</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J31" t="str">
         <v>Watts</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>50</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Lounge</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Loc1</v>
-      </c>
-      <c r="E31" t="str">
-        <v>ModernxK2x600x450</v>
-      </c>
-      <c r="F31" t="str">
-        <v>ModernxK2x600x450</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="str">
-        <v>Original</v>
-      </c>
-      <c r="J31">
-        <v>360.54416027213864</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B32">
-        <v>1</v>
       </c>
       <c r="C32" t="str">
         <v>Lounge</v>
       </c>
       <c r="D32" t="str">
-        <v>Loc2</v>
+        <v>Loc1</v>
       </c>
       <c r="E32" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x600x450</v>
       </c>
       <c r="F32" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x600x450</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6491,24 +6467,24 @@
         <v>Original</v>
       </c>
       <c r="J32">
-        <v>910.34114829344355</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+        <v>360.54416027213864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="str">
         <v>Lounge</v>
       </c>
       <c r="D33" t="str">
-        <v>Loc3</v>
-      </c>
-      <c r="E33" vm="3">
-        <v>0</v>
-      </c>
-      <c r="F33" vm="3">
-        <v>0</v>
+        <v>Loc2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>ModernxK2x1200x600</v>
+      </c>
+      <c r="F33" t="str">
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6517,44 +6493,343 @@
         <v>0</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>Original</v>
       </c>
       <c r="J33">
+        <v>910.34114829344355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Lounge</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Loc3</v>
+      </c>
+      <c r="E34" vm="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B34">
+      <c r="F34" vm="4">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C35" t="str">
         <v>Dining</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D35" t="str">
         <v>Loc1</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E35" t="str">
         <v>ModernxK2x800x450</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F35" t="str">
+        <v>ModernxK2x1400x600</v>
+      </c>
+      <c r="G35">
+        <v>154.06</v>
+      </c>
+      <c r="H35">
+        <v>95</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J35">
+        <v>1114.7647804363507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Bed 1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ModernxK2x800x450</v>
+      </c>
+      <c r="F36" t="str">
         <v>ModernxK2x1200x600</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>119.57</v>
       </c>
-      <c r="H34">
+      <c r="H36">
         <v>95</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I36" t="str">
         <v>Replaced</v>
       </c>
-      <c r="J34">
-        <v>955.24998505020085</v>
+      <c r="J36">
+        <v>1046.5335566296003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Bath 1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ModernxK2x800x450</v>
+      </c>
+      <c r="F37" t="str">
+        <v>ModernxK2x1400x600</v>
+      </c>
+      <c r="G37">
+        <v>154.06</v>
+      </c>
+      <c r="H37">
+        <v>95</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J37">
+        <v>1010.538750674492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="e" cm="1" vm="5">
+        <f t="array" ref="A46">_xlfn._xlws.PY(5,1,A47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B46" t="str" cm="1">
+        <f t="array" ref="B46:J52">_FV(A46,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>Room Name</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Location name</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Originally</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Proposed Radiator</v>
+      </c>
+      <c r="G46" t="str">
+        <v>£</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Labour Cost</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Status</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Watts</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Lounge</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E47" t="str">
+        <v>ModernxK2x600x450</v>
+      </c>
+      <c r="F47" t="str">
+        <v>ModernxK2x600x450</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Original</v>
+      </c>
+      <c r="J47">
+        <v>194.74573581005535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Lounge</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Loc2</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ModernxK2x1200x600</v>
+      </c>
+      <c r="F48" t="str">
+        <v>ModernxK2x1200x600</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Original</v>
+      </c>
+      <c r="J48">
+        <v>491.71523573911912</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Lounge</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Loc3</v>
+      </c>
+      <c r="E49" vm="4">
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
+        <v>ModernxK2x1200x700</v>
+      </c>
+      <c r="G49">
+        <v>198.48</v>
+      </c>
+      <c r="H49">
+        <v>300</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J49">
+        <v>556.78823373154341</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ModernxK2x800x450</v>
+      </c>
+      <c r="F50" t="str">
+        <v>ModernxK3x1800x600</v>
+      </c>
+      <c r="G50">
+        <v>469</v>
+      </c>
+      <c r="H50">
+        <v>95</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J50">
+        <v>1098.3908672589328</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Bed 1</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ModernxK2x800x450</v>
+      </c>
+      <c r="F51" t="str">
+        <v>ModernxK2x2000x600</v>
+      </c>
+      <c r="G51">
+        <v>303.12</v>
+      </c>
+      <c r="H51">
+        <v>95</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J51">
+        <v>1018.5019679470787</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Bath 1</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Loc1</v>
+      </c>
+      <c r="E52" t="str">
+        <v>ModernxK2x800x450</v>
+      </c>
+      <c r="F52" t="str">
+        <v>ModernxK2x2000x600</v>
+      </c>
+      <c r="G52">
+        <v>303.12</v>
+      </c>
+      <c r="H52">
+        <v>95</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Replaced</v>
+      </c>
+      <c r="J52">
+        <v>755.697673733648</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{D7A455FC-3304-487E-A662-A1B935170611}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{D7A455FC-3304-487E-A662-A1B935170611}">
       <formula1>$S$2:$S$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -6573,19 +6848,19 @@
           <x14:formula1>
             <xm:f>'RadiatorDatabase'!$L$2:$L$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5</xm:sqref>
+          <xm:sqref>I2:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{293B7A05-DF40-4A48-B853-65447368AE4F}">
           <x14:formula1>
             <xm:f>'RadiatorDatabase'!$M$2:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J5</xm:sqref>
+          <xm:sqref>J2:J7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65890CA2-F1A7-4285-A48C-25F54E1662B9}">
           <x14:formula1>
             <xm:f>'RadiatorDatabase'!$A$2:$A$147</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L5</xm:sqref>
+          <xm:sqref>L2:L7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6594,174 +6869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A880353D-53C7-4C36-B4B6-BAC4AE71C690}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="71.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1500</v>
-      </c>
-      <c r="C2">
-        <v>600</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>900</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481CD40-786D-47C7-B7F7-34323C25509A}">
   <dimension ref="O17:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:S16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6783,7 +6895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816285A1-A71E-447E-BA79-2ABEB518C2CD}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -7369,7 +7481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D269F0-F0FA-4CCF-8FCF-84BE210D1C1D}">
   <dimension ref="A1:S68"/>
   <sheetViews>
@@ -11321,7 +11433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D4B4CD-8DDF-40B2-A157-38E8306B97DE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11363,7 +11475,7 @@
         <v>75</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -11386,7 +11498,7 @@
         <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -11777,67 +11889,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045F260C-F26F-4A55-9C09-C31113677A50}">
-  <dimension ref="A2:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/radiator calculator.xlsx
+++ b/radiator calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\GitSourceCode\Radiators\radiators2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605BAE6C-06F1-4FB7-8898-7662CEEEBDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C95137-DDBB-48F5-BC1D-67A11A8449CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2872" windowWidth="17677" windowHeight="9908" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="825" windowWidth="21600" windowHeight="11055" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -178,11 +178,10 @@
     </pythonScript>
     <pythonScript>
       <code xml:space="preserve">class Room:
-    def __init__(self, room, location_constraints, radiator_database, design_temperature):
+    def __init__(self, room, location_constraints, radiator_database):
         self.room = room
         self.location_constraints = location_constraints
         self.radiator_database = radiator_database
-        self.design_temperature = design_temperature
     def minimal_cost_radiators(self, flow_temperature):
         t0 = time.time()
         self.pre_calculate_radiator_wattage_at_flow(flow_temperature)
@@ -194,7 +193,7 @@
         replaced_rads = self.replaced_radiators(self.room['Room Name'], rads, self.location_constraints)
         return {'cost': cost, 'locations': rads, 'replaced_radiators': replaced_rads}
     def pre_calculate_radiator_wattage_at_flow(self, flow_temperature):
-        factor = (flow_temperature - self.design_temperature - self.room['Room Temperature']) / 50.0
+        factor = (flow_temperature - 2.5 - self.room['Room Temperature']) / 50.0
         self.radiator_database['w'] = self.radiator_database['W @ dt 50'] * factor ** self.radiator_database['N']
     def all_combinations(self, flow_temperature):
         possible_rads_at_location = []
@@ -211,7 +210,7 @@
     def add_existing_radiators_to_possible_radiators(self, possible_rads, constraint, flow_temperature):
         if 'Existing Radiator' in constraint and isinstance(constraint['Existing Radiator'], str):
             existing_rad = self.find_radiator(constraint['Existing Radiator'])
-            factor = (flow_temperature - self.design_temperature - self.room['Room Temperature']) / 50.0
+            factor = (flow_temperature - 2.5 - self.room['Room Temperature']) / 50.0
             watts_at_flow = existing_rad['W @ dt 50'] * factor ** existing_rad['N']
             return self.add_radiator(possible_rads, existing_rad['Radiator Key'], watts_at_flow, 0.0, 0.0, 'Original')
         return possible_rads
@@ -269,11 +268,10 @@
     </pythonScript>
     <pythonScript>
       <code xml:space="preserve">class Home:
-    def __init__(self, rooms, radiator_constraints, radiator_database, design_temperature):
+    def __init__(self, rooms, radiator_constraints, radiator_database):
         self.rooms = rooms.dropna()
         self.radiator_constraints = radiator_constraints
         self.radiator_database = radiator_database
-        self.design_temperature = design_temperature
         self.add_radiator_depth_mm()
     def minimal_cost_radiators(self, flow_temperature):
         room_results = [self.minimal_cost_radiators_in_room(room, flow_temperature) for _, room in self.rooms.iterrows()]
@@ -318,7 +316,7 @@
     def minimal_cost_radiators_in_room(self, room_df, flow_temperature):
         room_name = room_df['Room Name']
         location_constraints = self.radiator_constraints[self.radiator_constraints['Room Name'] == room_name]
-        room = Room(room_df, location_constraints, self.radiator_database, self.design_temperature)
+        room = Room(room_df, location_constraints, self.radiator_database)
         room_result = room.minimal_cost_radiators(flow_temperature)
         room_result['room_name'] = room_name
         room_result['Room Temperature'] = room_df['Room Temperature']
@@ -379,7 +377,7 @@
     # flow_rate_scenario = xl("FlowRateScenario", headers=True)
     return rad_db, rooms, max_sizes
 rad_db, rooms, max_sizes = load_dataframes_from_excel()
-home = Home(rooms, max_sizes, rad_db, xl(%P5%))
+home = Home(rooms, max_sizes, rad_db)
 </code>
     </pythonScript>
     <pythonScript>
@@ -393,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="132">
   <si>
     <t>K1</t>
   </si>
@@ -782,7 +780,13 @@
     <t># these python objects need to be kept on this page otherwise dependency gets lost after save and reload (Excel bug)</t>
   </si>
   <si>
-    <t>Design Temperature</t>
+    <t>Design Temperature offset</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>NEW Excel Drop-Down Lists That Adapt to Your Data - YouTube</t>
   </si>
 </sst>
 </file>
@@ -795,7 +799,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +853,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,13 +948,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -979,12 +992,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="3"/>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
@@ -1006,7 +1022,936 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Flow</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Temperature v. Payback</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Scenarios!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Scenarios!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2546235540714008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5369323354767119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3094384195337101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0701071755681184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8901088520213314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0605615288444659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.809364517178488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3873451000458541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34C9-41E3-8161-AECA28FADBAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1918846671"/>
+        <c:axId val="1918845711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1918846671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918845711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1918845711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918846671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16668</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54768</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA545B-A4BF-3BF2-F4AD-F7136C32D079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1143,7 +2088,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1249,7 +2194,7 @@
   <rv s="2">
     <v>&lt;class '__main__.Home'&gt;</v>
     <v>Home</v>
-    <v>&lt;__main__.Home object at 0x7f5fecf389e0&gt;</v>
+    <v>&lt;__main__.Home object at 0x7f0fe4ead7c0&gt;</v>
     <v>1</v>
   </rv>
 </rvData>
@@ -1328,12 +2273,18 @@
     <filterColumn colId="2">
       <filters>
         <filter val="K2"/>
+        <filter val="K3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="600"/>
         <filter val="700"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1600"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6077,10 +7028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00B902C-D12E-492C-B0E9-33625A9086FA}">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6088,7 +7039,7 @@
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -6128,8 +7079,11 @@
       <c r="M2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="29">
         <v>65</v>
       </c>
@@ -6151,26 +7105,38 @@
       </c>
       <c r="F3" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B3,8,23,1))</f>
-        <v>13871.219177254476</v>
+        <v>12343.860479759829</v>
       </c>
       <c r="G3" s="28">
-        <f ca="1">F3/Calcs!$B$1</f>
-        <v>1.7040809800066923</v>
+        <f ca="1">F3/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.578700662458093</v>
       </c>
       <c r="H3">
         <v>3.01</v>
       </c>
       <c r="I3" s="27">
         <f>Calcs!$B$3/H3</f>
-        <v>5933.2061312770247</v>
+        <v>5793.2809754178634</v>
       </c>
       <c r="J3" s="1">
         <f>I3*Calcs!$B$4</f>
-        <v>1423.9694715064859</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1390.3874341002872</v>
+      </c>
+      <c r="K3" s="1">
+        <f>$J$3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f ca="1">E3-$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28">
+        <f>K3/$J$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="29">
         <v>50</v>
       </c>
@@ -6180,45 +7146,53 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B4,6,23,1))</f>
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B4,5,23,1))</f>
-        <v>257.86</v>
+        <v>575.49</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E10" ca="1" si="0">SUM(C4:D4)</f>
-        <v>637.86</v>
+        <v>1050.49</v>
       </c>
       <c r="F4" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B4,8,23,1))</f>
-        <v>10404.417371566949</v>
+        <v>9255.7468218411595</v>
       </c>
       <c r="G4" s="28">
-        <f ca="1">F4/Calcs!$B$1</f>
-        <v>1.2781839522809519</v>
+        <f ca="1">F4/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.1837507126027829</v>
       </c>
       <c r="H4">
         <v>3.92</v>
       </c>
       <c r="I4" s="27">
         <f>Calcs!$B$3/H4</f>
-        <v>4555.8547079448581</v>
+        <v>4448.412177553002</v>
       </c>
       <c r="J4" s="1">
         <f>I4*Calcs!$B$4</f>
-        <v>1093.405129906766</v>
+        <v>1067.6189226127206</v>
       </c>
       <c r="K4" s="1">
-        <f>J4-$J$4</f>
-        <v>0</v>
+        <f t="shared" ref="K4:K11" si="1">$J$3-J4</f>
+        <v>322.76851148756668</v>
       </c>
       <c r="L4" s="1">
-        <f ca="1">E4-$E$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ref="L4:L11" ca="1" si="2">E4-$E$3</f>
+        <v>1050.49</v>
+      </c>
+      <c r="M4" s="27">
+        <f ca="1">L4/K4</f>
+        <v>3.2546235540714008</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" ref="N4:N11" si="3">K4/$J$3</f>
+        <v>0.23214285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="29">
         <v>48</v>
       </c>
@@ -6232,45 +7206,49 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B5,5,23,1))</f>
-        <v>370.07</v>
+        <v>769.68</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>845.06999999999994</v>
+        <v>1244.6799999999998</v>
       </c>
       <c r="F5" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B5,8,23,1))</f>
-        <v>9858.9866222670407</v>
+        <v>8997.5426242861704</v>
       </c>
       <c r="G5" s="28">
-        <f ca="1">F5/Calcs!$B$1</f>
-        <v>1.2111777177232237</v>
+        <f ca="1">F5/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.1507280501708876</v>
       </c>
       <c r="H5">
         <v>4.03</v>
       </c>
       <c r="I5" s="27">
         <f>Calcs!$B$3/H5</f>
-        <v>4431.5013536337083</v>
+        <v>4326.9914977686767</v>
       </c>
       <c r="J5" s="1">
         <f>I5*Calcs!$B$4</f>
-        <v>1063.56032487209</v>
+        <v>1038.4779594644824</v>
       </c>
       <c r="K5" s="1">
-        <f>$J$4-J5</f>
-        <v>29.844805034676028</v>
+        <f t="shared" si="1"/>
+        <v>351.90947463580483</v>
       </c>
       <c r="L5" s="1">
-        <f ca="1">E5-$E$4</f>
-        <v>207.20999999999992</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1244.6799999999998</v>
       </c>
       <c r="M5" s="27">
         <f ca="1">L5/K5</f>
-        <v>6.9429168580343257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>3.5369323354767119</v>
+      </c>
+      <c r="N5" s="28">
+        <f t="shared" si="3"/>
+        <v>0.25310173697270477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="29">
         <v>46</v>
       </c>
@@ -6280,49 +7258,53 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B6,6,23,1))</f>
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B6,5,23,1))</f>
-        <v>643.18999999999994</v>
+        <v>970.43999999999994</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1213.19</v>
+        <v>1635.44</v>
       </c>
       <c r="F6" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B6,8,23,1))</f>
-        <v>9662.9755180169122</v>
+        <v>8700.1164112275474</v>
       </c>
       <c r="G6" s="28">
-        <f ca="1">F6/Calcs!$B$1</f>
-        <v>1.1870977294861071</v>
+        <f ca="1">F6/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.1126891432699255</v>
       </c>
       <c r="H6">
         <v>4.1399999999999997</v>
       </c>
       <c r="I6" s="27">
         <f>Calcs!$B$3/H6</f>
-        <v>4313.7561485854703</v>
+        <v>4212.0231246395579</v>
       </c>
       <c r="J6" s="1">
         <f>I6*Calcs!$B$4</f>
-        <v>1035.3014756605128</v>
+        <v>1010.8855499134938</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K11" si="1">$J$4-J6</f>
-        <v>58.1036542462532</v>
+        <f t="shared" si="1"/>
+        <v>379.5018841867934</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L10" ca="1" si="2">E6-$E$4</f>
-        <v>575.33000000000004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1635.44</v>
       </c>
       <c r="M6" s="27">
-        <f t="shared" ref="M6:M11" ca="1" si="3">L6/K6</f>
-        <v>9.9017868577018131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ref="M6:M11" ca="1" si="4">L6/K6</f>
+        <v>4.3094384195337101</v>
+      </c>
+      <c r="N6" s="28">
+        <f t="shared" si="3"/>
+        <v>0.27294685990338169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="29">
         <v>44</v>
       </c>
@@ -6332,49 +7314,53 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B7,6,23,1))</f>
-        <v>570</v>
+        <v>760</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B7,5,23,1))</f>
-        <v>839.28</v>
+        <v>1296.77</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1409.28</v>
+        <v>2056.77</v>
       </c>
       <c r="F7" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B7,8,23,1))</f>
-        <v>9356.8637046705517</v>
+        <v>8392.7715614130866</v>
       </c>
       <c r="G7" s="28">
-        <f ca="1">F7/Calcs!$B$1</f>
-        <v>1.1494918556106328</v>
+        <f ca="1">F7/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.0733817062812492</v>
       </c>
       <c r="H7">
         <v>4.25</v>
       </c>
       <c r="I7" s="27">
         <f>Calcs!$B$3/H7</f>
-        <v>4202.1059894456102</v>
+        <v>4103.0060555312393</v>
       </c>
       <c r="J7" s="1">
         <f>I7*Calcs!$B$4</f>
-        <v>1008.5054374669464</v>
+        <v>984.72145332749744</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>84.899692439819546</v>
+        <v>405.66598077278979</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>771.42</v>
+        <v>2056.77</v>
       </c>
       <c r="M7" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.0862519972827318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0701071755681184</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" si="3"/>
+        <v>0.29176470588235304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="29">
         <v>42</v>
       </c>
@@ -6384,49 +7370,53 @@
       </c>
       <c r="C8" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B8,6,23,1))</f>
-        <v>665</v>
+        <v>855</v>
       </c>
       <c r="D8" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B8,5,23,1))</f>
-        <v>1081.3799999999999</v>
+        <v>1680.7499999999998</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1746.3799999999999</v>
+        <v>2535.75</v>
       </c>
       <c r="F8" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B8,8,23,1))</f>
-        <v>8911.4895798391954</v>
+        <v>8247.8725126656154</v>
       </c>
       <c r="G8" s="28">
-        <f ca="1">F8/Calcs!$B$1</f>
-        <v>1.0947775896608347</v>
+        <f ca="1">F8/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.0548500463826085</v>
       </c>
       <c r="H8">
         <v>4.3600000000000003</v>
       </c>
       <c r="I8" s="27">
         <f>Calcs!$B$3/H8</f>
-        <v>4096.0895539320736</v>
+        <v>3999.4898477082029</v>
       </c>
       <c r="J8" s="1">
         <f>I8*Calcs!$B$4</f>
-        <v>983.06149294369766</v>
+        <v>959.87756344996865</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>110.34363696306832</v>
+        <v>430.50987065031859</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1108.52</v>
+        <v>2535.75</v>
       </c>
       <c r="M8" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.046070897327938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.8901088520213314</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" si="3"/>
+        <v>0.30963302752293598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="29">
         <v>40</v>
       </c>
@@ -6436,49 +7426,53 @@
       </c>
       <c r="C9" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B9,6,23,1))</f>
-        <v>855</v>
+        <v>950</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B9,5,23,1))</f>
-        <v>1618.1799999999998</v>
+        <v>2256.42</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2473.1799999999998</v>
+        <v>3206.42</v>
       </c>
       <c r="F9" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B9,8,23,1))</f>
-        <v>8603.395698539709</v>
+        <v>8089.7978464020189</v>
       </c>
       <c r="G9" s="28">
-        <f ca="1">F9/Calcs!$B$1</f>
-        <v>1.0569282184938218</v>
+        <f ca="1">F9/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>1.0346333094260161</v>
       </c>
       <c r="H9">
         <v>4.47</v>
       </c>
       <c r="I9" s="27">
         <f>Calcs!$B$3/H9</f>
-        <v>3995.2909295623813</v>
+        <v>3901.068397317174</v>
       </c>
       <c r="J9" s="1">
         <f>I9*Calcs!$B$4</f>
-        <v>958.86982309497148</v>
+        <v>936.25641535612169</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>134.5353068117945</v>
+        <v>454.13101874416554</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1835.3199999999997</v>
+        <v>3206.42</v>
       </c>
       <c r="M9" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.641920797545616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.0605615288444659</v>
+      </c>
+      <c r="N9" s="28">
+        <f t="shared" si="3"/>
+        <v>0.32662192393736028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="29">
         <v>38</v>
       </c>
@@ -6492,45 +7486,49 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B10,5,23,1))</f>
-        <v>2043.2799999999997</v>
+        <v>2772.08</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2993.2799999999997</v>
+        <v>3722.08</v>
       </c>
       <c r="F10" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B10,8,23,1))</f>
-        <v>8576.5019847409621</v>
+        <v>7631.9814972867889</v>
       </c>
       <c r="G10" s="28">
-        <f ca="1">F10/Calcs!$B$1</f>
-        <v>1.0536243224497497</v>
+        <f ca="1">F10/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>0.9760815318182362</v>
       </c>
       <c r="H10">
         <v>4.58</v>
       </c>
       <c r="I10" s="27">
         <f>Calcs!$B$3/H10</f>
-        <v>3899.3341605117562</v>
+        <v>3807.3746148488572</v>
       </c>
       <c r="J10" s="1">
         <f>I10*Calcs!$B$4</f>
-        <v>935.84019852282142</v>
+        <v>913.76990756372572</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>157.56493138394455</v>
+        <v>476.61752653656151</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2355.4199999999996</v>
+        <v>3722.08</v>
       </c>
       <c r="M10" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.9488847506331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.809364517178488</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" si="3"/>
+        <v>0.34279475982532764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="29">
         <v>36</v>
       </c>
@@ -6540,59 +7538,55 @@
       </c>
       <c r="C11" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B11,6,23,1))</f>
-        <v>950</v>
+        <v>1045</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B11,5,23,1))</f>
-        <v>2751.3</v>
+        <v>3630.3599999999997</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11" ca="1" si="4">SUM(C11:D11)</f>
-        <v>3701.3</v>
+        <f t="shared" ref="E11" ca="1" si="5">SUM(C11:D11)</f>
+        <v>4675.3599999999997</v>
       </c>
       <c r="F11" s="27">
         <f ca="1">SUM(OFFSET(CalcResults!$A$1,$B11,8,23,1))</f>
-        <v>8602.4781821520246</v>
+        <v>7295.5058942761098</v>
       </c>
       <c r="G11" s="28">
-        <f ca="1">F11/Calcs!$B$1</f>
-        <v>1.0568155014928777</v>
+        <f ca="1">F11/(Calcs!$B$1*'Rooms'!$D$1)</f>
+        <v>0.93304845815016113</v>
       </c>
       <c r="H11">
         <v>4.6900000000000004</v>
       </c>
       <c r="I11" s="27">
         <f>Calcs!$B$3/H11</f>
-        <v>3807.8785618643587</v>
+        <v>3718.0758498950458</v>
       </c>
       <c r="J11" s="1">
         <f>I11*Calcs!$B$4</f>
-        <v>913.89085484744612</v>
+        <v>892.33820397481099</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>179.51427505931986</v>
+        <v>498.04923012547624</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11" ca="1" si="5">E11-$E$4</f>
-        <v>3063.44</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4675.3599999999997</v>
       </c>
       <c r="M11" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>17.065160968327991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <f>A6</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.3873451000458541</v>
+      </c>
+      <c r="N11" s="28">
+        <f t="shared" si="3"/>
+        <v>0.35820895522388074</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6600,7 +7594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF5D92-B17B-4500-A196-AEEFF3505D3D}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -6643,7 +7637,7 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x600</v>
@@ -6670,7 +7664,7 @@
         <v>99.65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1000x700</v>
@@ -6698,7 +7692,7 @@
         <v>154.36000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x600</v>
@@ -6726,7 +7720,7 @@
         <v>109.61</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1100x700</v>
@@ -6754,7 +7748,7 @@
         <v>181.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x600</v>
@@ -6782,7 +7776,7 @@
         <v>119.57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1200x700</v>
@@ -6810,7 +7804,7 @@
         <v>198.48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x600</v>
@@ -6838,7 +7832,7 @@
         <v>154.06</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1400x700</v>
@@ -7454,7 +8448,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x600</v>
@@ -7482,7 +8476,7 @@
         <v>198.04</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x1800x700</v>
@@ -7594,7 +8588,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x600</v>
@@ -7622,7 +8616,7 @@
         <v>303.12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2000x700</v>
@@ -7650,7 +8644,7 @@
         <v>379.84</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2200x600</v>
@@ -8014,7 +9008,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x2400x600</v>
@@ -8042,7 +9036,7 @@
         <v>412.94</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x600</v>
@@ -8126,7 +9120,7 @@
         <v>61.83</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x400x700</v>
@@ -8182,7 +9176,7 @@
         <v>181.53</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x600</v>
@@ -8210,7 +9204,7 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x500x700</v>
@@ -8238,7 +9232,7 @@
         <v>111.95</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x600</v>
@@ -8322,7 +9316,7 @@
         <v>71.739999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x600x700</v>
@@ -8378,7 +9372,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x600</v>
@@ -8658,7 +9652,7 @@
         <v>181.86</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x700x700</v>
@@ -8686,7 +9680,7 @@
         <v>135.04</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x600</v>
@@ -8966,7 +9960,7 @@
         <v>53.62</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x800x700</v>
@@ -9554,7 +10548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x600</v>
@@ -9694,7 +10688,7 @@
         <v>154.74</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x600</v>
@@ -10086,7 +11080,7 @@
         <v>92.68</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK2x900x700</v>
@@ -10282,7 +11276,7 @@
         <v>218.4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="str">
         <f>RadiatorDatabase[[#This Row],[Type]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Depth]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Length]]&amp;"x"&amp;RadiatorDatabase[[#This Row],[Height]]</f>
         <v>ModernxK3x1600x700</v>
@@ -10789,8 +11783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147D45E9-EB23-4D87-8DF6-1E5CFFE89E8D}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11042,6 +12036,9 @@
         <f>VLOOKUP(Table3[[#This Row],[Existing Radiator]],'RadiatorDatabase'!$A$1:$H$125,1,FALSE)</f>
         <v>ModernxK2x1000x600</v>
       </c>
+      <c r="O7" s="32" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -11216,7 +12213,7 @@
         <v>94</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="D13">
         <v>600</v>
@@ -11280,9 +12277,12 @@
       <formula1>$S$2:$S$4</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O7" r:id="rId1" display="https://www.youtube.com/watch?v=RXSH2UiDc5g" xr:uid="{934F75FF-1D00-4663-B29F-6C564E2F2D60}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -11321,8 +12321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80C640-98BD-4A52-8009-0046D86D994D}">
   <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I209" sqref="I209:I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11380,7 +12380,7 @@
         <v>129</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -11388,7 +12388,7 @@
         <v>96</v>
       </c>
       <c r="B6" t="e" cm="1" vm="2">
-        <f t="array" ref="B6">_xlfn._xlws.PY(4,1,RadiatorDatabase[#All],Rooms[#All],RoomEmittersMaxSizes,B5)</f>
+        <f t="array" ref="B6">_xlfn._xlws.PY(4,1,RadiatorDatabase[#All],Rooms[#All],RoomEmittersMaxSizes)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11446,7 +12446,7 @@
         <v>Original</v>
       </c>
       <c r="I9">
-        <v>1398.8472414179278</v>
+        <v>1223.6230101759752</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -11472,7 +12472,7 @@
         <v>Original</v>
       </c>
       <c r="I10">
-        <v>1398.8472414179278</v>
+        <v>1223.6230101759752</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -11498,7 +12498,7 @@
         <v>Original</v>
       </c>
       <c r="I11">
-        <v>1864.5314738078603</v>
+        <v>1785.881144029755</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -11524,7 +12524,7 @@
         <v>Original</v>
       </c>
       <c r="I12">
-        <v>2024.1348468916367</v>
+        <v>1785.881144029755</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -11576,7 +12576,7 @@
         <v>Original</v>
       </c>
       <c r="I14">
-        <v>652.63250597564809</v>
+        <v>575.81345837340507</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -11602,7 +12602,7 @@
         <v>Original</v>
       </c>
       <c r="I15">
-        <v>652.63250597564809</v>
+        <v>575.81345837340507</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -11628,7 +12628,7 @@
         <v>Original</v>
       </c>
       <c r="I16">
-        <v>859.13711980674861</v>
+        <v>758.01114967961689</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
@@ -11654,7 +12654,7 @@
         <v>Original</v>
       </c>
       <c r="I17">
-        <v>763.67743982822105</v>
+        <v>673.78768860410389</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
@@ -11680,7 +12680,7 @@
         <v>Original</v>
       </c>
       <c r="I18">
-        <v>1180.5829809589334</v>
+        <v>1041.6207635053238</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
@@ -11706,7 +12706,7 @@
         <v>Original</v>
       </c>
       <c r="I19">
-        <v>1687.1037318654066</v>
+        <v>1488.5207610488621</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
@@ -11732,7 +12732,7 @@
         <v>Original</v>
       </c>
       <c r="I20">
-        <v>512.73455650559174</v>
+        <v>447.10327454929575</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
@@ -11758,7 +12758,7 @@
         <v>Original</v>
       </c>
       <c r="I21">
-        <v>876.35753280292465</v>
+        <v>764.18161721435752</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -11815,7 +12815,7 @@
         <v>Original</v>
       </c>
       <c r="I34">
-        <v>837.44310564370437</v>
+        <v>682.97490384479238</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -11829,10 +12829,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E35" t="str">
-        <v>ModernxK2x1600x600</v>
+        <v>ModernxK2x2000x600</v>
       </c>
       <c r="F35">
-        <v>176.02</v>
+        <v>303.12</v>
       </c>
       <c r="G35">
         <v>95</v>
@@ -11841,7 +12841,7 @@
         <v>Replaced</v>
       </c>
       <c r="I35">
-        <v>1488.4893173436208</v>
+        <v>1517.5273039886856</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
@@ -11867,7 +12867,7 @@
         <v>Original</v>
       </c>
       <c r="I36">
-        <v>1116.2326962973814</v>
+        <v>1046.5335566296003</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -11893,7 +12893,7 @@
         <v>Original</v>
       </c>
       <c r="I37">
-        <v>1258.6562298538813</v>
+        <v>1046.5335566296003</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -11919,7 +12919,7 @@
         <v>Original</v>
       </c>
       <c r="I38">
-        <v>1049.0820934104536</v>
+        <v>872.27917232072548</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -11971,7 +12971,7 @@
         <v>Original</v>
       </c>
       <c r="I40">
-        <v>405.82274976039486</v>
+        <v>337.42901007787879</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -11985,10 +12985,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E41" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x800x600</v>
       </c>
       <c r="F41">
-        <v>81.84</v>
+        <v>86.36</v>
       </c>
       <c r="G41">
         <v>95</v>
@@ -11997,7 +12997,7 @@
         <v>Replaced</v>
       </c>
       <c r="I41">
-        <v>734.11518314865452</v>
+        <v>698.02478801185077</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -12023,7 +13023,7 @@
         <v>Original</v>
       </c>
       <c r="I42">
-        <v>474.87318777932768</v>
+        <v>394.84230432993576</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -12037,19 +13037,19 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E43" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x800x600</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>86.36</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H43" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I43">
-        <v>734.11518314865452</v>
+        <v>698.02478801185077</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -12075,7 +13075,7 @@
         <v>Original</v>
       </c>
       <c r="I44">
-        <v>1049.0820934104536</v>
+        <v>872.27917232072548</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -12101,7 +13101,7 @@
         <v>Moved:Main bed:Loc1</v>
       </c>
       <c r="I45">
-        <v>454.00978247501502</v>
+        <v>367.5444033381039</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -12115,19 +13115,19 @@
         <v>ModernxK1x900x700</v>
       </c>
       <c r="E46" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x1000x600</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>99.65</v>
       </c>
       <c r="G46">
         <v>95</v>
       </c>
       <c r="H46" t="str">
-        <v>Moved:Lounge:Loc2</v>
+        <v>Replaced</v>
       </c>
       <c r="I46">
-        <v>802.49574929540643</v>
+        <v>721.7538623374104</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
@@ -12184,7 +13184,7 @@
         <v>Original</v>
       </c>
       <c r="I59">
-        <v>767.89617943601627</v>
+        <v>616.73844184794473</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
@@ -12198,10 +13198,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E60" t="str">
-        <v>ModernxK2x1800x600</v>
+        <v>ModernxK2x2000x700</v>
       </c>
       <c r="F60">
-        <v>198.04</v>
+        <v>379.84</v>
       </c>
       <c r="G60">
         <v>95</v>
@@ -12210,7 +13210,7 @@
         <v>Replaced</v>
       </c>
       <c r="I60">
-        <v>1535.7923588720325</v>
+        <v>1551.5382738471067</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -12236,7 +13236,7 @@
         <v>Original</v>
       </c>
       <c r="I61">
-        <v>1023.5332013265181</v>
+        <v>955.24998505020085</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
@@ -12262,7 +13262,7 @@
         <v>Original</v>
       </c>
       <c r="I62">
-        <v>1163.2672715029155</v>
+        <v>955.24998505020085</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
@@ -12288,7 +13288,7 @@
         <v>Original</v>
       </c>
       <c r="I63">
-        <v>969.57599337971578</v>
+        <v>796.19488648072559</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
@@ -12340,7 +13340,7 @@
         <v>Original</v>
       </c>
       <c r="I65">
-        <v>375.06692584550211</v>
+        <v>307.99686717210517</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.45">
@@ -12354,10 +13354,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E66" t="str">
-        <v>ModernxK2x900x450</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F66">
-        <v>85.67</v>
+        <v>93.42</v>
       </c>
       <c r="G66">
         <v>95</v>
@@ -12366,7 +13366,7 @@
         <v>Replaced</v>
       </c>
       <c r="I66">
-        <v>690.79490521395462</v>
+        <v>716.66733719598801</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.45">
@@ -12392,7 +13392,7 @@
         <v>Original</v>
       </c>
       <c r="I67">
-        <v>438.88428337742334</v>
+        <v>360.40230427303055</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.45">
@@ -12406,10 +13406,10 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E68" t="str">
-        <v>ModernxK2x800x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F68">
-        <v>86.36</v>
+        <v>93.42</v>
       </c>
       <c r="G68">
         <v>95</v>
@@ -12418,7 +13418,7 @@
         <v>Replaced</v>
       </c>
       <c r="I68">
-        <v>775.8847152565163</v>
+        <v>716.66733719598801</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.45">
@@ -12444,7 +13444,7 @@
         <v>Original</v>
       </c>
       <c r="I69">
-        <v>969.57599337971578</v>
+        <v>796.19488648072559</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.45">
@@ -12458,7 +13458,7 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E70" t="str">
-        <v>ModernxK1x900x600</v>
+        <v>ModernxK2x700x600</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -12467,10 +13467,10 @@
         <v>95</v>
       </c>
       <c r="H70" t="str">
-        <v>Moved:Main bed:Loc1</v>
+        <v>Moved:Bed NW:Loc1</v>
       </c>
       <c r="I70">
-        <v>415.06204379552469</v>
+        <v>454.18191293356568</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.45">
@@ -12484,19 +13484,19 @@
         <v>ModernxK1x900x700</v>
       </c>
       <c r="E71" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK3x1000x500</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="G71">
         <v>95</v>
       </c>
       <c r="H71" t="str">
-        <v>Moved:Lounge:Loc2</v>
+        <v>Replaced</v>
       </c>
       <c r="I71">
-        <v>733.65275088120518</v>
+        <v>770.4604067585899</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
@@ -12541,19 +13541,19 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E84" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x1800x600</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>198.04</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H84" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I84">
-        <v>699.77432332075307</v>
+        <v>1104.2117870497291</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -12567,10 +13567,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E85" t="str">
-        <v>ModernxK2x2000x600</v>
+        <v>ModernxK2x1800x600</v>
       </c>
       <c r="F85">
-        <v>303.12</v>
+        <v>198.04</v>
       </c>
       <c r="G85">
         <v>95</v>
@@ -12579,7 +13579,7 @@
         <v>Replaced</v>
       </c>
       <c r="I85">
-        <v>1554.8545580391844</v>
+        <v>1104.2117870497291</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -12593,19 +13593,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E86" t="str">
-        <v>ModernxK2x1400x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="F86">
-        <v>154.06</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H86" t="str">
-        <v>Replaced</v>
+        <v>Original</v>
       </c>
       <c r="I86">
-        <v>1088.4879628305491</v>
+        <v>865.93794800065746</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -12619,19 +13619,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E87" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>154.06</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H87" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I87">
-        <v>1069.6511655136976</v>
+        <v>1010.538750674492</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -12657,7 +13657,7 @@
         <v>Original</v>
       </c>
       <c r="I88">
-        <v>891.54755470150349</v>
+        <v>721.7538623374104</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
@@ -12709,7 +13709,7 @@
         <v>Original</v>
       </c>
       <c r="I90">
-        <v>344.88271457852613</v>
+        <v>279.20039709357098</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -12723,10 +13723,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E91" t="str">
-        <v>ModernxK2x800x600</v>
+        <v>ModernxK2x1000x600</v>
       </c>
       <c r="F91">
-        <v>86.36</v>
+        <v>99.65</v>
       </c>
       <c r="G91">
         <v>95</v>
@@ -12735,7 +13735,7 @@
         <v>Replaced</v>
       </c>
       <c r="I91">
-        <v>713.44394388930937</v>
+        <v>721.7538623374104</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -12761,7 +13761,7 @@
         <v>Original</v>
       </c>
       <c r="I92">
-        <v>403.56425108890227</v>
+        <v>326.7061363005368</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -12775,19 +13775,19 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E93" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1000x600</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>99.65</v>
       </c>
       <c r="G93">
         <v>95</v>
       </c>
       <c r="H93" t="str">
-        <v>Moved:Dining:Loc1</v>
+        <v>Replaced</v>
       </c>
       <c r="I93">
-        <v>888.07550189162453</v>
+        <v>721.7538623374104</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -12813,7 +13813,7 @@
         <v>Original</v>
       </c>
       <c r="I94">
-        <v>891.54755470150349</v>
+        <v>721.7538623374104</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
@@ -12827,7 +13827,7 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E95" t="str">
-        <v>ModernxK1x900x600</v>
+        <v>ModernxK2x700x600</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12836,10 +13836,10 @@
         <v>95</v>
       </c>
       <c r="H95" t="str">
-        <v>Moved:Main bed:Loc1</v>
+        <v>Moved:Bed NW:Loc1</v>
       </c>
       <c r="I95">
-        <v>376.94061244870687</v>
+        <v>404.58670931574665</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -12853,10 +13853,10 @@
         <v>ModernxK1x900x700</v>
       </c>
       <c r="E96" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK3x900x600</v>
       </c>
       <c r="F96">
-        <v>99.65</v>
+        <v>221</v>
       </c>
       <c r="G96">
         <v>95</v>
@@ -12865,7 +13865,7 @@
         <v>Replaced</v>
       </c>
       <c r="I96">
-        <v>740.20537501265335</v>
+        <v>717.70744639344491</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -12910,19 +13910,19 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E109" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x1800x600</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>198.04</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H109" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I109">
-        <v>633.15074295968554</v>
+        <v>978.35197169490255</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -12948,7 +13948,7 @@
         <v>Replaced</v>
       </c>
       <c r="I110">
-        <v>1592.8269492545778</v>
+        <v>1230.6274640754996</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -12962,19 +13962,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E111" t="str">
-        <v>ModernxK2x1600x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="F111">
-        <v>176.02</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H111" t="str">
-        <v>Replaced</v>
+        <v>Original</v>
       </c>
       <c r="I111">
-        <v>1125.3756951515643</v>
+        <v>778.70463290094835</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -12988,19 +13988,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E112" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>154.06</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H112" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I112">
-        <v>977.88993991734731</v>
+        <v>908.73856341905673</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.45">
@@ -13026,7 +14026,7 @@
         <v>Original</v>
       </c>
       <c r="I113">
-        <v>815.06514722658596</v>
+        <v>649.04543993476545</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.45">
@@ -13078,7 +14078,7 @@
         <v>Original</v>
       </c>
       <c r="I115">
-        <v>315.29656388095412</v>
+        <v>251.07415979000743</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.45">
@@ -13092,10 +14092,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E116" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x1100x600</v>
       </c>
       <c r="F116">
-        <v>93.42</v>
+        <v>109.61</v>
       </c>
       <c r="G116">
         <v>95</v>
@@ -13104,7 +14104,7 @@
         <v>Replaced</v>
       </c>
       <c r="I116">
-        <v>733.65275088120518</v>
+        <v>713.8750364178569</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.45">
@@ -13130,7 +14130,7 @@
         <v>Original</v>
       </c>
       <c r="I117">
-        <v>368.94403892935532</v>
+        <v>293.79424070950125</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.45">
@@ -13144,19 +14144,19 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E118" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1100x600</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>109.61</v>
       </c>
       <c r="G118">
         <v>95</v>
       </c>
       <c r="H118" t="str">
-        <v>Moved:Dining:Loc1</v>
+        <v>Replaced</v>
       </c>
       <c r="I118">
-        <v>800.31167380667466</v>
+        <v>713.8750364178569</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.45">
@@ -13170,19 +14170,19 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="E119" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK2x1100x600</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>109.61</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H119" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I119">
-        <v>815.06514722658596</v>
+        <v>713.8750364178569</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.45">
@@ -13196,7 +14196,7 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E120" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -13205,10 +14205,10 @@
         <v>95</v>
       </c>
       <c r="H120" t="str">
-        <v>Moved:Bed NW:Loc1</v>
+        <v>Moved:Lounge:Loc1</v>
       </c>
       <c r="I120">
-        <v>466.78428712882084</v>
+        <v>458.38469053969271</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.45">
@@ -13222,10 +14222,10 @@
         <v>ModernxK1x900x700</v>
       </c>
       <c r="E121" t="str">
-        <v>ModernxK3x900x500</v>
+        <v>ModernxK3x1000x600</v>
       </c>
       <c r="F121">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="G121">
         <v>95</v>
@@ -13234,7 +14234,7 @@
         <v>Replaced</v>
       </c>
       <c r="I121">
-        <v>712.50076830719354</v>
+        <v>702.42528909514169</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.45">
@@ -13291,7 +14291,7 @@
         <v>Replaced</v>
       </c>
       <c r="I134">
-        <v>1136.2170239780214</v>
+        <v>856.1273121849639</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
@@ -13305,10 +14305,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E135" t="str">
-        <v>ModernxK2x1800x600</v>
+        <v>ModernxK3x1800x700</v>
       </c>
       <c r="F135">
-        <v>198.04</v>
+        <v>643</v>
       </c>
       <c r="G135">
         <v>95</v>
@@ -13317,7 +14317,7 @@
         <v>Replaced</v>
       </c>
       <c r="I135">
-        <v>1136.2170239780214</v>
+        <v>1340.479005159395</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
@@ -13331,19 +14331,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E136" t="str">
-        <v>ModernxK3x1200x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="F136">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H136" t="str">
-        <v>Replaced</v>
+        <v>Original</v>
       </c>
       <c r="I136">
-        <v>1044.7511891420743</v>
+        <v>693.67259237468772</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.45">
@@ -13357,19 +14357,19 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E137" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>176.02</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H137" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I137">
-        <v>888.07550189162453</v>
+        <v>925.00806230522608</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.45">
@@ -13395,7 +14395,7 @@
         <v>Original</v>
       </c>
       <c r="I138">
-        <v>740.20537501265335</v>
+        <v>578.17176611788216</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.45">
@@ -13447,7 +14447,7 @@
         <v>Original</v>
       </c>
       <c r="I140">
-        <v>286.3381069621696</v>
+        <v>223.65766934121308</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
@@ -13461,10 +14461,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E141" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="F141">
-        <v>99.65</v>
+        <v>119.57</v>
       </c>
       <c r="G141">
         <v>95</v>
@@ -13473,7 +14473,7 @@
         <v>Replaced</v>
       </c>
       <c r="I141">
-        <v>740.20537501265335</v>
+        <v>693.67259237468772</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
@@ -13487,19 +14487,19 @@
         <v>ModernxK1x800x600</v>
       </c>
       <c r="E142" t="str">
-        <v>ModernxK1x800x600</v>
+        <v>ModernxK2x700x600</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H142" t="str">
-        <v>Original</v>
+        <v>Moved:Bed NW:Loc1</v>
       </c>
       <c r="I142">
-        <v>335.05832217662828</v>
+        <v>309.5929607250759</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
@@ -13513,10 +14513,10 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E143" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F143">
-        <v>99.65</v>
+        <v>154.06</v>
       </c>
       <c r="G143">
         <v>95</v>
@@ -13525,7 +14525,7 @@
         <v>Replaced</v>
       </c>
       <c r="I143">
-        <v>740.20537501265335</v>
+        <v>809.50723604842051</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
@@ -13539,19 +14539,19 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="E144" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>154.06</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H144" t="str">
-        <v>Original</v>
+        <v>Replaced</v>
       </c>
       <c r="I144">
-        <v>740.20537501265335</v>
+        <v>809.50723604842051</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
@@ -13565,7 +14565,7 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E145" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -13574,10 +14574,10 @@
         <v>95</v>
       </c>
       <c r="H145" t="str">
-        <v>Moved:Bed NW:Loc1</v>
+        <v>Moved:Lounge:Loc1</v>
       </c>
       <c r="I145">
-        <v>416.86083994246326</v>
+        <v>398.2305493155061</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
@@ -13591,10 +14591,10 @@
         <v>ModernxK1x900x700</v>
       </c>
       <c r="E146" t="str">
-        <v>ModernxK3x1000x500</v>
+        <v>ModernxK3x1000x600</v>
       </c>
       <c r="F146">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="G146">
         <v>95</v>
@@ -13603,7 +14603,7 @@
         <v>Replaced</v>
       </c>
       <c r="I146">
-        <v>707.15007171757793</v>
+        <v>610.24553067013733</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
@@ -13648,10 +14648,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E159" t="str">
-        <v>ModernxK2x1800x600</v>
+        <v>ModernxK3x1800x600</v>
       </c>
       <c r="F159">
-        <v>198.04</v>
+        <v>469</v>
       </c>
       <c r="G159">
         <v>95</v>
@@ -13660,7 +14660,7 @@
         <v>Replaced</v>
       </c>
       <c r="I159">
-        <v>1009.4857397509735</v>
+        <v>1017.5050595179076</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
@@ -13674,10 +14674,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E160" t="str">
-        <v>ModernxK2x1800x700</v>
+        <v>ModernxK3x1800x700</v>
       </c>
       <c r="F160">
-        <v>328.68</v>
+        <v>643</v>
       </c>
       <c r="G160">
         <v>95</v>
@@ -13686,7 +14686,7 @@
         <v>Replaced</v>
       </c>
       <c r="I160">
-        <v>1142.8751319181965</v>
+        <v>1155.2231861782384</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.45">
@@ -13700,10 +14700,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E161" t="str">
-        <v>ModernxK2x1600x700</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F161">
-        <v>292.18</v>
+        <v>154.06</v>
       </c>
       <c r="G161">
         <v>95</v>
@@ -13712,7 +14712,7 @@
         <v>Replaced</v>
       </c>
       <c r="I161">
-        <v>1015.9609529629746</v>
+        <v>713.01018252646236</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.45">
@@ -13726,10 +14726,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E162" t="str">
-        <v>ModernxK2x1400x600</v>
+        <v>ModernxK2x1600x700</v>
       </c>
       <c r="F162">
-        <v>154.06</v>
+        <v>292.18</v>
       </c>
       <c r="G162">
         <v>95</v>
@@ -13738,7 +14738,7 @@
         <v>Replaced</v>
       </c>
       <c r="I162">
-        <v>933.95370980807797</v>
+        <v>922.6498774301192</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.45">
@@ -13764,7 +14764,7 @@
         <v>Original</v>
       </c>
       <c r="I163">
-        <v>667.05477335570765</v>
+        <v>509.25098397353935</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.45">
@@ -13777,8 +14777,8 @@
       <c r="D164" t="str">
         <v>ModernxK1x600x700</v>
       </c>
-      <c r="E164" vm="3">
-        <v>0</v>
+      <c r="E164" t="str">
+        <v>ModernxK1x600x700</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -13787,10 +14787,10 @@
         <v>0</v>
       </c>
       <c r="H164" t="str">
-        <v>Removed</v>
+        <v>Original</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>196.99662774957929</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.45">
@@ -13816,7 +14816,7 @@
         <v>Original</v>
       </c>
       <c r="I165">
-        <v>258.04081879233496</v>
+        <v>196.99662774957929</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.45">
@@ -13830,10 +14830,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E166" t="str">
-        <v>ModernxK3x900x500</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F166">
-        <v>190</v>
+        <v>154.06</v>
       </c>
       <c r="G166">
         <v>95</v>
@@ -13842,7 +14842,7 @@
         <v>Replaced</v>
       </c>
       <c r="I166">
-        <v>712.50076830719354</v>
+        <v>713.01018252646236</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.45">
@@ -13856,19 +14856,19 @@
         <v>ModernxK1x800x600</v>
       </c>
       <c r="E167" t="str">
-        <v>ModernxK1x800x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H167" t="str">
-        <v>Original</v>
+        <v>Moved:Lounge:Loc1</v>
       </c>
       <c r="I167">
-        <v>301.94627154207552</v>
+        <v>340.10758468555343</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.45">
@@ -13882,10 +14882,10 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E168" t="str">
-        <v>ModernxK2x1100x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F168">
-        <v>109.61</v>
+        <v>154.06</v>
       </c>
       <c r="G168">
         <v>95</v>
@@ -13894,7 +14894,7 @@
         <v>Replaced</v>
       </c>
       <c r="I168">
-        <v>733.6832235811911</v>
+        <v>713.01018252646236</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.45">
@@ -13908,10 +14908,10 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="E169" t="str">
-        <v>ModernxK2x1100x600</v>
+        <v>ModernxK2x1400x600</v>
       </c>
       <c r="F169">
-        <v>109.61</v>
+        <v>154.06</v>
       </c>
       <c r="G169">
         <v>95</v>
@@ -13920,7 +14920,7 @@
         <v>Replaced</v>
       </c>
       <c r="I169">
-        <v>733.6832235811911</v>
+        <v>713.01018252646236</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.45">
@@ -13934,7 +14934,7 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E170" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x1000x600</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -13943,10 +14943,10 @@
         <v>95</v>
       </c>
       <c r="H170" t="str">
-        <v>Moved:Bed NW:Loc1</v>
+        <v>Moved:Bed SW:Loc1</v>
       </c>
       <c r="I170">
-        <v>368.28209801361487</v>
+        <v>377.848836866824</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.45">
@@ -13972,7 +14972,7 @@
         <v>Replaced</v>
       </c>
       <c r="I171">
-        <v>725.92898692617655</v>
+        <v>521.17833214482823</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
@@ -14029,7 +15029,7 @@
         <v>Replaced</v>
       </c>
       <c r="I184">
-        <v>1222.3262293215948</v>
+        <v>860.17309210029453</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.45">
@@ -14043,10 +15043,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E185" t="str">
-        <v>ModernxK2x2000x600</v>
+        <v>ModernxK3x2000x700</v>
       </c>
       <c r="F185">
-        <v>303.12</v>
+        <v>743</v>
       </c>
       <c r="G185">
         <v>95</v>
@@ -14055,7 +15055,7 @@
         <v>Replaced</v>
       </c>
       <c r="I185">
-        <v>984.68326938837322</v>
+        <v>1085.018337570232</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.45">
@@ -14069,10 +15069,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E186" t="str">
-        <v>ModernxK3x1600x600</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="F186">
-        <v>417</v>
+        <v>176.02</v>
       </c>
       <c r="G186">
         <v>95</v>
@@ -14081,7 +15081,7 @@
         <v>Replaced</v>
       </c>
       <c r="I186">
-        <v>1086.4490345272409</v>
+        <v>707.82351004058205</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.45">
@@ -14095,10 +15095,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E187" t="str">
-        <v>ModernxK2x1600x600</v>
+        <v>ModernxK3x1600x600</v>
       </c>
       <c r="F187">
-        <v>176.02</v>
+        <v>417</v>
       </c>
       <c r="G187">
         <v>95</v>
@@ -14107,7 +15107,7 @@
         <v>Replaced</v>
       </c>
       <c r="I187">
-        <v>953.07045171663833</v>
+        <v>976.29067317759086</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
@@ -14133,7 +15133,7 @@
         <v>Original</v>
       </c>
       <c r="I188">
-        <v>595.71202539632543</v>
+        <v>442.42162374243526</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
@@ -14146,8 +15146,8 @@
       <c r="D189" t="str">
         <v>ModernxK1x600x700</v>
       </c>
-      <c r="E189" vm="3">
-        <v>0</v>
+      <c r="E189" t="str">
+        <v>ModernxK1x600x700</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -14156,10 +15156,10 @@
         <v>0</v>
       </c>
       <c r="H189" t="str">
-        <v>Removed</v>
+        <v>Original</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>171.14462350313602</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.45">
@@ -14185,7 +15185,7 @@
         <v>Original</v>
       </c>
       <c r="I190">
-        <v>230.44287356555313</v>
+        <v>171.14462350313602</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.45">
@@ -14199,10 +15199,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E191" t="str">
-        <v>ModernxK3x1000x500</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="F191">
-        <v>203</v>
+        <v>176.02</v>
       </c>
       <c r="G191">
         <v>95</v>
@@ -14211,7 +15211,7 @@
         <v>Replaced</v>
       </c>
       <c r="I191">
-        <v>707.15007171757793</v>
+        <v>707.82351004058205</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.45">
@@ -14225,7 +15225,7 @@
         <v>ModernxK1x800x600</v>
       </c>
       <c r="E192" t="str">
-        <v>ModernxK2x700x600</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -14234,10 +15234,10 @@
         <v>95</v>
       </c>
       <c r="H192" t="str">
-        <v>Moved:Bed NW:Loc1</v>
+        <v>Moved:Lounge:Loc1</v>
       </c>
       <c r="I192">
-        <v>321.14108536387698</v>
+        <v>284.19668551292239</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.45">
@@ -14251,10 +15251,10 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E193" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="F193">
-        <v>119.57</v>
+        <v>176.02</v>
       </c>
       <c r="G193">
         <v>95</v>
@@ -14263,7 +15263,7 @@
         <v>Replaced</v>
       </c>
       <c r="I193">
-        <v>714.71685264062592</v>
+        <v>707.82351004058205</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.45">
@@ -14277,10 +15277,10 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="E194" t="str">
-        <v>ModernxK2x1200x600</v>
+        <v>ModernxK2x1600x600</v>
       </c>
       <c r="F194">
-        <v>119.57</v>
+        <v>176.02</v>
       </c>
       <c r="G194">
         <v>95</v>
@@ -14289,7 +15289,7 @@
         <v>Replaced</v>
       </c>
       <c r="I194">
-        <v>714.71685264062592</v>
+        <v>707.82351004058205</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.45">
@@ -14303,19 +15303,19 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E195" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK3x1000x500</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="G195">
         <v>95</v>
       </c>
       <c r="H195" t="str">
-        <v>Moved:Lounge:Loc1</v>
+        <v>Replaced</v>
       </c>
       <c r="I195">
-        <v>413.0849439622807</v>
+        <v>374.79691174763849</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.45">
@@ -14341,7 +15341,7 @@
         <v>Replaced</v>
       </c>
       <c r="I196">
-        <v>633.00829450024935</v>
+        <v>435.50088626707605</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.45">
@@ -14386,10 +15386,10 @@
         <v>ModernxK2x900x600</v>
       </c>
       <c r="E209" t="str">
-        <v>ModernxK3x1400x600</v>
+        <v>ModernxK3x1800x600</v>
       </c>
       <c r="F209">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="G209">
         <v>95</v>
@@ -14398,7 +15398,7 @@
         <v>Replaced</v>
       </c>
       <c r="I209">
-        <v>822.84628791596572</v>
+        <v>709.23550204043067</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.45">
@@ -14424,7 +15424,7 @@
         <v>Replaced</v>
       </c>
       <c r="I210">
-        <v>1334.2655502709113</v>
+        <v>894.62636350402227</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.45">
@@ -14438,10 +15438,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E211" t="str">
-        <v>ModernxK3x1600x700</v>
+        <v>ModernxK3x1600x500</v>
       </c>
       <c r="F211">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="G211">
         <v>95</v>
@@ -14450,7 +15450,7 @@
         <v>Replaced</v>
       </c>
       <c r="I211">
-        <v>1067.3632416344919</v>
+        <v>717.73826402531802</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.45">
@@ -14464,10 +15464,10 @@
         <v>ModernxK2x1200x600</v>
       </c>
       <c r="E212" t="str">
-        <v>ModernxK2x1600x700</v>
+        <v>ModernxK3x1600x700</v>
       </c>
       <c r="F212">
-        <v>292.18</v>
+        <v>571</v>
       </c>
       <c r="G212">
         <v>95</v>
@@ -14476,7 +15476,7 @@
         <v>Replaced</v>
       </c>
       <c r="I212">
-        <v>953.52246168871568</v>
+        <v>946.58550991059428</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.45">
@@ -14502,7 +15502,7 @@
         <v>Original</v>
       </c>
       <c r="I213">
-        <v>526.2909189435486</v>
+        <v>377.848836866824</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.45">
@@ -14516,19 +15516,19 @@
         <v>ModernxK1x600x700</v>
       </c>
       <c r="E214" t="str">
-        <v>ModernxK1x600x700</v>
+        <v>ModernxK2x900x600</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="H214" t="str">
-        <v>Original</v>
+        <v>Moved:Lounge:Loc1</v>
       </c>
       <c r="I214">
-        <v>203.58828850587619</v>
+        <v>230.72375012672455</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.45">
@@ -14554,7 +15554,7 @@
         <v>Original</v>
       </c>
       <c r="I215">
-        <v>203.58828850587619</v>
+        <v>146.16554312977601</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.45">
@@ -14568,10 +15568,10 @@
         <v>ModernxK1x900x600</v>
       </c>
       <c r="E216" t="str">
-        <v>ModernxK3x1000x600</v>
+        <v>ModernxK3x1600x500</v>
       </c>
       <c r="F216">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="G216">
         <v>95</v>
@@ -14580,7 +15580,7 @@
         <v>Replaced</v>
       </c>
       <c r="I216">
-        <v>725.92898692617655</v>
+        <v>717.73826402531802</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.45">
@@ -14594,7 +15594,7 @@
         <v>ModernxK1x800x600</v>
       </c>
       <c r="E217" t="str">
-        <v>ModernxK2x900x600</v>
+        <v>ModernxK2x1200x600</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -14603,10 +15603,10 @@
         <v>95</v>
       </c>
       <c r="H217" t="str">
-        <v>Moved:Lounge:Loc1</v>
+        <v>Moved:Dining:Loc1</v>
       </c>
       <c r="I217">
-        <v>354.43866083385814</v>
+        <v>307.53300369681438</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.45">
@@ -14620,10 +15620,10 @@
         <v>ModernxK2x700x600</v>
       </c>
       <c r="E218" t="str">
-        <v>ModernxK2x1400x600</v>
+        <v>ModernxK2x1800x700</v>
       </c>
       <c r="F218">
-        <v>154.06</v>
+        <v>328.68</v>
       </c>
       <c r="G218">
         <v>95</v>
@@ -14632,7 +15632,7 @@
         <v>Replaced</v>
       </c>
       <c r="I218">
-        <v>736.86805914440265</v>
+        <v>770.09607051956618</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.45">
@@ -14646,10 +15646,10 @@
         <v>ModernxK2x1000x600</v>
       </c>
       <c r="E219" t="str">
-        <v>ModernxK2x1400x600</v>
+        <v>ModernxK2x1800x700</v>
       </c>
       <c r="F219">
-        <v>154.06</v>
+        <v>328.68</v>
       </c>
       <c r="G219">
         <v>95</v>
@@ -14658,7 +15658,7 @@
         <v>Replaced</v>
       </c>
       <c r="I219">
-        <v>736.86805914440265</v>
+        <v>770.09607051956618</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.45">
@@ -14672,19 +15672,19 @@
         <v>ModernxK1x600x600</v>
       </c>
       <c r="E220" t="str">
-        <v>ModernxK2x1000x600</v>
+        <v>ModernxK3x1000x600</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G220">
         <v>95</v>
       </c>
       <c r="H220" t="str">
-        <v>Moved:Bed SW:Loc1</v>
+        <v>Replaced</v>
       </c>
       <c r="I220">
-        <v>393.77021203607586</v>
+        <v>353.55935795557724</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.45">
@@ -14710,7 +15710,7 @@
         <v>Replaced</v>
       </c>
       <c r="I221">
-        <v>543.13916660172356</v>
+        <v>353.55935795557724</v>
       </c>
     </row>
   </sheetData>
@@ -14720,28 +15720,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A28468E-1C96-4244-AAD3-D4DE1A24BCD5}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.9296875" customWidth="1"/>
     <col min="3" max="3" width="10.53125" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" customWidth="1"/>
-    <col min="7" max="7" width="6.86328125" customWidth="1"/>
-    <col min="8" max="8" width="5.73046875" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" customWidth="1"/>
-    <col min="10" max="10" width="6.1328125" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="13" width="6.796875" customWidth="1"/>
+    <col min="4" max="5" width="22.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" customWidth="1"/>
+    <col min="9" max="9" width="5.73046875" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" customWidth="1"/>
+    <col min="11" max="11" width="6.1328125" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="14" width="6.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -14751,1602 +15751,1648 @@
       <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="30">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" cm="1">
-        <f t="array" ref="F1:N1">TRANSPOSE(Scenarios!A3:A11)</f>
+      <c r="G1" cm="1">
+        <f t="array" ref="G1:O1">TRANSPOSE(Scenarios!A3:A11)</f>
         <v>65</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>50</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>48</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>46</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>44</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>42</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>40</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>38</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>36</v>
       </c>
-      <c r="P1" t="str">
-        <f>E1</f>
+      <c r="Q1" t="str">
+        <f>F1</f>
         <v>Room</v>
       </c>
-      <c r="Q1">
-        <f t="shared" ref="Q1:X1" si="0">F1</f>
+      <c r="R1">
+        <f t="shared" ref="R1:Y1" si="0">G1</f>
         <v>65</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="Y1">
-        <f>N1</f>
+      <c r="Z1">
+        <f>O1</f>
         <v>36</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1">
-        <f>Q1</f>
+      <c r="AC1">
+        <f>R1</f>
         <v>65</v>
       </c>
-      <c r="AC1">
-        <f t="shared" ref="AC1:AJ1" si="1">R1</f>
+      <c r="AD1">
+        <f t="shared" ref="AD1:AK1" si="1">S1</f>
         <v>50</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
+        <f>D2*$D$1</f>
         <v>2151</v>
       </c>
       <c r="C2">
         <v>21</v>
       </c>
-      <c r="E2" t="str">
+      <c r="D2">
+        <v>2151</v>
+      </c>
+      <c r="F2" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Lounge</v>
       </c>
-      <c r="F2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>2797.6944828358555</v>
-      </c>
       <c r="G2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>2325.932422987325</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>2447.2460203519504</v>
       </c>
       <c r="H2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>2303.6885383080489</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>2200.5022078334778</v>
       </c>
       <c r="I2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>2254.6288813599376</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>2168.2767156950513</v>
       </c>
       <c r="J2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>2225.9776922142632</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>2208.4235740994582</v>
       </c>
       <c r="K2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>2272.4340479560428</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>2208.9794357704022</v>
       </c>
       <c r="L2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>2152.3608716691701</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>2196.606317344359</v>
       </c>
       <c r="M2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>2207.0094987099683</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>2172.7282456961461</v>
       </c>
       <c r="N2" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>2157.1118381868769</v>
-      </c>
-      <c r="P2" t="str">
-        <f>E2</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>1945.1914296705265</v>
+      </c>
+      <c r="O2" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>1603.8618655444529</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>F2</f>
         <v>Lounge</v>
       </c>
-      <c r="Q2" s="28">
-        <f ca="1">F2/$B2</f>
-        <v>1.3006482951352187</v>
-      </c>
       <c r="R2" s="28">
-        <f t="shared" ref="R2:Y2" ca="1" si="2">G2/$B2</f>
-        <v>1.0813260915794165</v>
+        <f ca="1">G2/$B2</f>
+        <v>1.1377247886341006</v>
       </c>
       <c r="S2" s="28">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.0709849085579028</v>
+        <f t="shared" ref="S2:Z2" ca="1" si="2">H2/$B2</f>
+        <v>1.0230135787231416</v>
       </c>
       <c r="T2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0481770717619421</v>
+        <v>1.0080319459298239</v>
       </c>
       <c r="U2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0348571325961242</v>
+        <v>1.0266962222684604</v>
       </c>
       <c r="V2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0564546945402338</v>
+        <v>1.0269546423851241</v>
       </c>
       <c r="W2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.000632669302264</v>
+        <v>1.0212023790536304</v>
       </c>
       <c r="X2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.026038818554146</v>
+        <v>1.0101014624342846</v>
       </c>
       <c r="Y2" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0028413938572185</v>
-      </c>
-      <c r="AA2" t="str">
+        <v>0.90431958608578644</v>
+      </c>
+      <c r="Z2" s="28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74563545585516178</v>
+      </c>
+      <c r="AB2" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Lounge</v>
       </c>
-      <c r="AB2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
-        <v>271.02</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
-        <v>293.03999999999996</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <v>398.12</v>
       </c>
       <c r="AE2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
-        <v>398.12</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <v>474.84</v>
       </c>
       <c r="AF2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
-        <v>474.84</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>586.07999999999993</v>
       </c>
       <c r="AG2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>586.07999999999993</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>767.88</v>
       </c>
       <c r="AH2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>716.72</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>1031.04</v>
       </c>
       <c r="AI2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>962.12</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <v>1302</v>
       </c>
       <c r="AJ2" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E2,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>1402</v>
+      </c>
+      <c r="AK2" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F2,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
+        <v>693</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>1014</v>
       </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Dining</v>
       </c>
-      <c r="F3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>1864.5314738078603</v>
-      </c>
       <c r="G3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>1116.2326962973814</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>1785.881144029755</v>
       </c>
       <c r="H3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>1023.5332013265181</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>1046.5335566296003</v>
       </c>
       <c r="I3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>1088.4879628305491</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>955.24998505020085</v>
       </c>
       <c r="J3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>1125.3756951515643</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>865.93794800065746</v>
       </c>
       <c r="K3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>1044.7511891420743</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>778.70463290094835</v>
       </c>
       <c r="L3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>1015.9609529629746</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>693.67259237468772</v>
       </c>
       <c r="M3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>1086.4490345272409</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>713.01018252646236</v>
       </c>
       <c r="N3" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>1067.3632416344919</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P12" si="3">E3</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>707.82351004058205</v>
+      </c>
+      <c r="O3" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>717.73826402531802</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q12" si="3">F3</f>
         <v>Dining</v>
       </c>
-      <c r="Q3" s="28">
-        <f t="shared" ref="Q3:Q12" ca="1" si="4">F3/$B3</f>
-        <v>1.8387884357079489</v>
-      </c>
       <c r="R3" s="28">
-        <f t="shared" ref="R3:R12" ca="1" si="5">G3/$B3</f>
-        <v>1.1008211995043209</v>
+        <f t="shared" ref="R3:R12" ca="1" si="4">G3/$B3</f>
+        <v>2.5770290678640042</v>
       </c>
       <c r="S3" s="28">
-        <f t="shared" ref="S3:S12" ca="1" si="6">H3/$B3</f>
-        <v>1.0094015792174735</v>
+        <f t="shared" ref="S3:S12" ca="1" si="5">H3/$B3</f>
+        <v>1.5101494323659457</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" ref="T3:T12" ca="1" si="7">I3/$B3</f>
-        <v>1.0734595294186875</v>
+        <f t="shared" ref="T3:T12" ca="1" si="6">I3/$B3</f>
+        <v>1.3784271068545466</v>
       </c>
       <c r="U3" s="28">
-        <f t="shared" ref="U3:U12" ca="1" si="8">J3/$B3</f>
-        <v>1.1098379636603197</v>
+        <f t="shared" ref="U3:U12" ca="1" si="7">J3/$B3</f>
+        <v>1.2495497085146572</v>
       </c>
       <c r="V3" s="28">
-        <f t="shared" ref="V3:V12" ca="1" si="9">K3/$B3</f>
-        <v>1.0303266165109213</v>
+        <f t="shared" ref="V3:V12" ca="1" si="8">K3/$B3</f>
+        <v>1.1236719089479774</v>
       </c>
       <c r="W3" s="28">
-        <f t="shared" ref="W3:W12" ca="1" si="10">L3/$B3</f>
-        <v>1.0019338786617107</v>
+        <f t="shared" ref="W3:W12" ca="1" si="9">L3/$B3</f>
+        <v>1.000970551767226</v>
       </c>
       <c r="X3" s="28">
-        <f t="shared" ref="X3:X12" ca="1" si="11">M3/$B3</f>
-        <v>1.0714487519992513</v>
+        <f t="shared" ref="X3:X12" ca="1" si="10">M3/$B3</f>
+        <v>1.0288747222604075</v>
       </c>
       <c r="Y3" s="28">
-        <f t="shared" ref="Y3:Y12" ca="1" si="12">N3/$B3</f>
-        <v>1.0526264710399329</v>
-      </c>
-      <c r="AA3" t="str">
+        <f t="shared" ref="Y3:Y12" ca="1" si="11">N3/$B3</f>
+        <v>1.0213903463789062</v>
+      </c>
+      <c r="Z3" s="28">
+        <f t="shared" ref="Z3:Z12" ca="1" si="12">O3/$B3</f>
+        <v>1.0356973506858846</v>
+      </c>
+      <c r="AB3" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Dining</v>
       </c>
-      <c r="AB3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>249.06</v>
       </c>
-      <c r="AF3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+      <c r="AJ3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
         <v>271.02</v>
       </c>
-      <c r="AG3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>378</v>
-      </c>
-      <c r="AH3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>387.18</v>
-      </c>
-      <c r="AI3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>512</v>
-      </c>
-      <c r="AJ3" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E3,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="AK3" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F3,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B12" si="13">D4*$D$1</f>
         <v>886</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="E4" t="str">
+      <c r="D4">
+        <v>886</v>
+      </c>
+      <c r="F4" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Kitchen</v>
       </c>
-      <c r="F4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>2024.1348468916367</v>
-      </c>
       <c r="G4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>1258.6562298538813</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>1785.881144029755</v>
       </c>
       <c r="H4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>1163.2672715029155</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>1046.5335566296003</v>
       </c>
       <c r="I4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>1069.6511655136976</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>955.24998505020085</v>
       </c>
       <c r="J4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>977.88993991734731</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>1010.538750674492</v>
       </c>
       <c r="K4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>888.07550189162453</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>908.73856341905673</v>
       </c>
       <c r="L4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>933.95370980807797</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>925.00806230522608</v>
       </c>
       <c r="M4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>953.07045171663833</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>922.6498774301192</v>
       </c>
       <c r="N4" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>953.52246168871568</v>
-      </c>
-      <c r="P4" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>976.29067317759086</v>
+      </c>
+      <c r="O4" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>946.58550991059428</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="3"/>
         <v>Kitchen</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="R4" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2845765766271295</v>
-      </c>
-      <c r="R4" s="28">
+        <v>2.0156672054511908</v>
+      </c>
+      <c r="S4" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4206052255687147</v>
-      </c>
-      <c r="S4" s="28">
+        <v>1.1811891158347634</v>
+      </c>
+      <c r="T4" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3129427443599497</v>
-      </c>
-      <c r="T4" s="28">
+        <v>1.0781602540069988</v>
+      </c>
+      <c r="U4" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2072812251847602</v>
-      </c>
-      <c r="U4" s="28">
+        <v>1.140562924011842</v>
+      </c>
+      <c r="V4" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1037132504710465</v>
-      </c>
-      <c r="V4" s="28">
+        <v>1.0256642927980324</v>
+      </c>
+      <c r="W4" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.002342552925084</v>
-      </c>
-      <c r="W4" s="28">
+        <v>1.0440271583580429</v>
+      </c>
+      <c r="X4" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0541238259684853</v>
-      </c>
-      <c r="X4" s="28">
+        <v>1.0413655501468615</v>
+      </c>
+      <c r="Y4" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.075700284104558</v>
-      </c>
-      <c r="Y4" s="28">
+        <v>1.1019082090040528</v>
+      </c>
+      <c r="Z4" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0762104533732684</v>
-      </c>
-      <c r="AA4" t="str">
+        <v>1.068380936693673</v>
+      </c>
+      <c r="AB4" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Kitchen</v>
       </c>
-      <c r="AB4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
-        <v>0</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AG4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>0</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AH4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>249.06</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>271.02</v>
       </c>
       <c r="AI4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>271.02</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <v>387.18</v>
       </c>
       <c r="AJ4" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E4,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>387.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>512</v>
+      </c>
+      <c r="AK4" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F4,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
+        <f t="shared" si="13"/>
         <v>564</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="E5" t="str">
+      <c r="D5">
+        <v>564</v>
+      </c>
+      <c r="F5" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Hall</v>
       </c>
-      <c r="F5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>652.63250597564809</v>
-      </c>
       <c r="G5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>1049.0820934104536</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>575.81345837340507</v>
       </c>
       <c r="H5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>969.57599337971578</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>872.27917232072548</v>
       </c>
       <c r="I5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>891.54755470150349</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>796.19488648072559</v>
       </c>
       <c r="J5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>815.06514722658596</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>721.7538623374104</v>
       </c>
       <c r="K5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>740.20537501265335</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>649.04543993476545</v>
       </c>
       <c r="L5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>667.05477335570765</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>578.17176611788216</v>
       </c>
       <c r="M5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>595.71202539632543</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>706.24761172311867</v>
       </c>
       <c r="N5" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>729.87920744942483</v>
-      </c>
-      <c r="P5" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>613.56624724557128</v>
+      </c>
+      <c r="O5" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>608.57258699354861</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="3"/>
         <v>Hall</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="R5" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1571498332901562</v>
-      </c>
-      <c r="R5" s="28">
+        <v>1.0209458481797962</v>
+      </c>
+      <c r="S5" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.860074633706478</v>
-      </c>
-      <c r="S5" s="28">
+        <v>1.5465942771644068</v>
+      </c>
+      <c r="T5" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7191063712406309</v>
-      </c>
-      <c r="T5" s="28">
+        <v>1.4116930611360383</v>
+      </c>
+      <c r="U5" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5807580757118855</v>
-      </c>
-      <c r="U5" s="28">
+        <v>1.2797054296762596</v>
+      </c>
+      <c r="V5" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4451509702599041</v>
-      </c>
-      <c r="V5" s="28">
+        <v>1.1507897871183785</v>
+      </c>
+      <c r="W5" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3124208776820094</v>
-      </c>
-      <c r="W5" s="28">
+        <v>1.0251272448898621</v>
+      </c>
+      <c r="X5" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1827212293540916</v>
-      </c>
-      <c r="X5" s="28">
+        <v>1.2522120775232601</v>
+      </c>
+      <c r="Y5" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0562269953835557</v>
-      </c>
-      <c r="Y5" s="28">
+        <v>1.0878834171020768</v>
+      </c>
+      <c r="Z5" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2941120699457886</v>
-      </c>
-      <c r="AA5" t="str">
+        <v>1.0790294095630295</v>
+      </c>
+      <c r="AB5" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Hall</v>
       </c>
-      <c r="AB5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E5,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F5,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
+        <f t="shared" si="13"/>
         <v>115</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
-      <c r="E6" t="str">
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="F6" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Utility</v>
       </c>
-      <c r="F6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>652.63250597564809</v>
-      </c>
       <c r="G6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>405.82274976039486</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>575.81345837340507</v>
       </c>
       <c r="H6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>375.06692584550211</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>337.42901007787879</v>
       </c>
       <c r="I6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>344.88271457852613</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>307.99686717210517</v>
       </c>
       <c r="J6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>315.29656388095412</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>279.20039709357098</v>
       </c>
       <c r="K6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>286.3381069621696</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>251.07415979000743</v>
       </c>
       <c r="L6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>258.04081879233496</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>223.65766934121308</v>
       </c>
       <c r="M6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>230.44287356555313</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>196.99662774957929</v>
       </c>
       <c r="N6" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>203.58828850587619</v>
-      </c>
-      <c r="P6" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>171.14462350313602</v>
+      </c>
+      <c r="O6" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>146.16554312977601</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="3"/>
         <v>Utility</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="R6" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6750652693534613</v>
-      </c>
-      <c r="R6" s="28">
+        <v>5.0070735510730877</v>
+      </c>
+      <c r="S6" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5288934761773465</v>
-      </c>
-      <c r="S6" s="28">
+        <v>2.9341653050250329</v>
+      </c>
+      <c r="T6" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2614515290913229</v>
-      </c>
-      <c r="T6" s="28">
+        <v>2.678233627583523</v>
+      </c>
+      <c r="U6" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9989801267697924</v>
-      </c>
-      <c r="U6" s="28">
+        <v>2.4278295399440957</v>
+      </c>
+      <c r="V6" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7417092511387313</v>
-      </c>
-      <c r="V6" s="28">
+        <v>2.1832535633913688</v>
+      </c>
+      <c r="W6" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4898965822797359</v>
-      </c>
-      <c r="W6" s="28">
+        <v>1.9448492986192443</v>
+      </c>
+      <c r="X6" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2438332068898692</v>
-      </c>
-      <c r="X6" s="28">
+        <v>1.7130141543441677</v>
+      </c>
+      <c r="Y6" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0038510744830709</v>
-      </c>
-      <c r="Y6" s="28">
+        <v>1.4882141174185741</v>
+      </c>
+      <c r="Z6" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.7703329435293582</v>
-      </c>
-      <c r="AA6" t="str">
+        <v>1.2710047228676176</v>
+      </c>
+      <c r="AB6" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Utility</v>
       </c>
-      <c r="AB6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E6,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F6,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
+        <f t="shared" si="13"/>
         <v>684</v>
       </c>
       <c r="C7">
         <v>18</v>
       </c>
-      <c r="E7" t="str">
+      <c r="D7">
+        <v>684</v>
+      </c>
+      <c r="F7" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Main bed</v>
       </c>
-      <c r="F7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>859.13711980674861</v>
-      </c>
       <c r="G7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>734.11518314865452</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>758.01114967961689</v>
       </c>
       <c r="H7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>690.79490521395462</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>698.02478801185077</v>
       </c>
       <c r="I7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>713.44394388930937</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>716.66733719598801</v>
       </c>
       <c r="J7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>733.65275088120518</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>721.7538623374104</v>
       </c>
       <c r="K7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>740.20537501265335</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>713.8750364178569</v>
       </c>
       <c r="L7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>712.50076830719354</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>693.67259237468772</v>
       </c>
       <c r="M7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>707.15007171757793</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>713.01018252646236</v>
       </c>
       <c r="N7" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>725.92898692617655</v>
-      </c>
-      <c r="P7" t="str">
-        <f>E7</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>707.82351004058205</v>
+      </c>
+      <c r="O7" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>717.73826402531802</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>F7</f>
         <v>Main bed</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="R7" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2560484207701004</v>
-      </c>
-      <c r="R7" s="28">
+        <v>1.1082034352041183</v>
+      </c>
+      <c r="S7" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0732678116208398</v>
-      </c>
-      <c r="S7" s="28">
+        <v>1.0205040760407176</v>
+      </c>
+      <c r="T7" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0099340719502261</v>
-      </c>
-      <c r="T7" s="28">
+        <v>1.0477592649064151</v>
+      </c>
+      <c r="U7" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0430467015925575</v>
-      </c>
-      <c r="U7" s="28">
+        <v>1.0551957051716527</v>
+      </c>
+      <c r="V7" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0725917410543935</v>
-      </c>
-      <c r="V7" s="28">
+        <v>1.0436769538272761</v>
+      </c>
+      <c r="W7" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0821716008956921</v>
-      </c>
-      <c r="W7" s="28">
+        <v>1.0141412169220581</v>
+      </c>
+      <c r="X7" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0416677899227975</v>
-      </c>
-      <c r="X7" s="28">
+        <v>1.0424125475533075</v>
+      </c>
+      <c r="Y7" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0338451340900263</v>
-      </c>
-      <c r="Y7" s="28">
+        <v>1.0348296930417866</v>
+      </c>
+      <c r="Z7" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0612996884885622</v>
-      </c>
-      <c r="AA7" t="str">
+        <v>1.0493249474054358</v>
+      </c>
+      <c r="AB7" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Main bed</v>
       </c>
-      <c r="AB7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
-        <v>176.84</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
-        <v>180.67000000000002</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <v>181.36</v>
       </c>
       <c r="AE7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
-        <v>181.36</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <v>188.42000000000002</v>
       </c>
       <c r="AF7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
-        <v>188.42000000000002</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>194.65</v>
       </c>
       <c r="AG7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>194.65</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>204.61</v>
       </c>
       <c r="AH7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>285</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>214.57</v>
       </c>
       <c r="AI7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>298</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AJ7" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E7,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>271.02</v>
+      </c>
+      <c r="AK7" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F7,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>97</v>
       </c>
       <c r="B8">
+        <f t="shared" si="13"/>
         <v>271</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
-      <c r="E8" t="str">
+      <c r="D8">
+        <v>271</v>
+      </c>
+      <c r="F8" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed N</v>
       </c>
-      <c r="F8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>763.67743982822105</v>
-      </c>
       <c r="G8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>474.87318777932768</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>673.78768860410389</v>
       </c>
       <c r="H8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>438.88428337742334</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>394.84230432993576</v>
       </c>
       <c r="I8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>403.56425108890227</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>360.40230427303055</v>
       </c>
       <c r="J8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>368.94403892935532</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>326.7061363005368</v>
       </c>
       <c r="K8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>335.05832217662828</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>293.79424070950125</v>
       </c>
       <c r="L8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>301.94627154207552</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>309.5929607250759</v>
       </c>
       <c r="M8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>321.14108536387698</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>340.10758468555343</v>
       </c>
       <c r="N8" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>354.43866083385814</v>
-      </c>
-      <c r="P8" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>284.19668551292239</v>
+      </c>
+      <c r="O8" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>307.53300369681438</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="3"/>
         <v>Bed N</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="R8" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>2.817997932945465</v>
-      </c>
-      <c r="R8" s="28">
+        <v>2.486301433963483</v>
+      </c>
+      <c r="S8" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7522995859015782</v>
-      </c>
-      <c r="S8" s="28">
+        <v>1.456982672804191</v>
+      </c>
+      <c r="T8" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6194992006546987</v>
-      </c>
-      <c r="T8" s="28">
+        <v>1.3298978017455001</v>
+      </c>
+      <c r="U8" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4891669781878312</v>
-      </c>
-      <c r="U8" s="28">
+        <v>1.2055576985259659</v>
+      </c>
+      <c r="V8" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3614171178204992</v>
-      </c>
-      <c r="V8" s="28">
+        <v>1.084111589333953</v>
+      </c>
+      <c r="W8" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2363775726074844</v>
-      </c>
-      <c r="W8" s="28">
+        <v>1.1424094491700219</v>
+      </c>
+      <c r="X8" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1141928839190978</v>
-      </c>
-      <c r="X8" s="28">
+        <v>1.2550095375850681</v>
+      </c>
+      <c r="Y8" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1850224552172581</v>
-      </c>
-      <c r="Y8" s="28">
+        <v>1.0486962565052487</v>
+      </c>
+      <c r="Z8" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3078917373943104</v>
-      </c>
-      <c r="AA8" t="str">
+        <v>1.1348081317225622</v>
+      </c>
+      <c r="AB8" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed N</v>
       </c>
-      <c r="AB8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>0</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>95</v>
       </c>
       <c r="AI8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>95</v>
       </c>
       <c r="AJ8" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E8,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="AK8" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F8,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9">
+        <f t="shared" si="13"/>
         <v>695</v>
       </c>
       <c r="C9">
         <v>18</v>
       </c>
-      <c r="E9" t="str">
+      <c r="D9">
+        <v>695</v>
+      </c>
+      <c r="F9" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed NW</v>
       </c>
-      <c r="F9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>1180.5829809589334</v>
-      </c>
       <c r="G9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>734.11518314865452</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>1041.6207635053238</v>
       </c>
       <c r="H9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>775.8847152565163</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>698.02478801185077</v>
       </c>
       <c r="I9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>888.07550189162453</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>716.66733719598801</v>
       </c>
       <c r="J9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>800.31167380667466</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>721.7538623374104</v>
       </c>
       <c r="K9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>740.20537501265335</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>713.8750364178569</v>
       </c>
       <c r="L9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>733.6832235811911</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>809.50723604842051</v>
       </c>
       <c r="M9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>714.71685264062592</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>713.01018252646236</v>
       </c>
       <c r="N9" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>736.86805914440265</v>
-      </c>
-      <c r="P9" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>707.82351004058205</v>
+      </c>
+      <c r="O9" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>770.09607051956618</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="3"/>
         <v>Bed NW</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="R9" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6986805481423501</v>
-      </c>
-      <c r="R9" s="28">
+        <v>1.4987349115184514</v>
+      </c>
+      <c r="S9" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0562808390628122</v>
-      </c>
-      <c r="S9" s="28">
+        <v>1.0043522129666917</v>
+      </c>
+      <c r="T9" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1163808852611745</v>
-      </c>
-      <c r="T9" s="28">
+        <v>1.0311760247424289</v>
+      </c>
+      <c r="U9" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2778064775419058</v>
-      </c>
-      <c r="U9" s="28">
+        <v>1.0384947659531085</v>
+      </c>
+      <c r="V9" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1515275882110427</v>
-      </c>
-      <c r="V9" s="28">
+        <v>1.027158325781089</v>
+      </c>
+      <c r="W9" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0650437050541774</v>
-      </c>
-      <c r="W9" s="28">
+        <v>1.1647586130193102</v>
+      </c>
+      <c r="X9" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.055659314505311</v>
-      </c>
-      <c r="X9" s="28">
+        <v>1.0259139316927517</v>
+      </c>
+      <c r="Y9" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0283695721447854</v>
-      </c>
-      <c r="Y9" s="28">
+        <v>1.0184510935835713</v>
+      </c>
+      <c r="Z9" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.060241811718565</v>
-      </c>
-      <c r="AA9" t="str">
+        <v>1.1080519000281528</v>
+      </c>
+      <c r="AB9" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed NW</v>
       </c>
-      <c r="AB9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>181.36</v>
       </c>
       <c r="AE9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
-        <v>95</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <v>188.42000000000002</v>
       </c>
       <c r="AF9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
-        <v>95</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>194.65</v>
       </c>
       <c r="AG9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>194.65</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>204.61</v>
       </c>
       <c r="AH9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>204.61</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AI9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>214.57</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AJ9" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E9,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>249.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>271.02</v>
+      </c>
+      <c r="AK9" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F9,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>423.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>99</v>
       </c>
       <c r="B10">
+        <f t="shared" si="13"/>
         <v>694</v>
       </c>
       <c r="C10">
         <v>18</v>
       </c>
-      <c r="E10" t="str">
+      <c r="D10">
+        <v>694</v>
+      </c>
+      <c r="F10" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed SW</v>
       </c>
-      <c r="F10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>1687.1037318654066</v>
-      </c>
       <c r="G10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>1049.0820934104536</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>1488.5207610488621</v>
       </c>
       <c r="H10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>969.57599337971578</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>872.27917232072548</v>
       </c>
       <c r="I10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>891.54755470150349</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>796.19488648072559</v>
       </c>
       <c r="J10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>815.06514722658596</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>721.7538623374104</v>
       </c>
       <c r="K10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>740.20537501265335</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>713.8750364178569</v>
       </c>
       <c r="L10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>733.6832235811911</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>809.50723604842051</v>
       </c>
       <c r="M10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>714.71685264062592</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>713.01018252646236</v>
       </c>
       <c r="N10" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>736.86805914440265</v>
-      </c>
-      <c r="P10" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>707.82351004058205</v>
+      </c>
+      <c r="O10" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>770.09607051956618</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" si="3"/>
         <v>Bed SW</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="R10" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4309852044170124</v>
-      </c>
-      <c r="R10" s="28">
+        <v>2.1448425951712711</v>
+      </c>
+      <c r="S10" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5116456677384058</v>
-      </c>
-      <c r="S10" s="28">
+        <v>1.2568864154477313</v>
+      </c>
+      <c r="T10" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3970835639477173</v>
-      </c>
-      <c r="T10" s="28">
+        <v>1.1472548796552242</v>
+      </c>
+      <c r="U10" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2846506551894863</v>
-      </c>
-      <c r="U10" s="28">
+        <v>1.0399911561057786</v>
+      </c>
+      <c r="V10" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.174445457098827</v>
-      </c>
-      <c r="V10" s="28">
+        <v>1.0286383810055575</v>
+      </c>
+      <c r="W10" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0665783501623247</v>
-      </c>
-      <c r="W10" s="28">
+        <v>1.1664369395510381</v>
+      </c>
+      <c r="X10" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0571804374368747</v>
-      </c>
-      <c r="X10" s="28">
+        <v>1.0273921938421648</v>
+      </c>
+      <c r="Y10" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0298513726810172</v>
-      </c>
-      <c r="Y10" s="28">
+        <v>1.019918602363951</v>
+      </c>
+      <c r="Z10" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.06176953767205</v>
-      </c>
-      <c r="AA10" t="str">
+        <v>1.1096485165987986</v>
+      </c>
+      <c r="AB10" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bed SW</v>
       </c>
-      <c r="AB10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
         <v>0</v>
       </c>
       <c r="AG10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>0</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>204.61</v>
       </c>
       <c r="AH10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
-        <v>204.61</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AI10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>214.57</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <v>249.06</v>
       </c>
       <c r="AJ10" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E10,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>249.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>271.02</v>
+      </c>
+      <c r="AK10" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F10,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>423.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
+        <f t="shared" si="13"/>
         <v>362</v>
       </c>
       <c r="C11">
         <v>22</v>
       </c>
-      <c r="E11" t="str">
+      <c r="D11">
+        <v>362</v>
+      </c>
+      <c r="F11" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Ensuite</v>
       </c>
-      <c r="F11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>512.73455650559174</v>
-      </c>
       <c r="G11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>454.00978247501502</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>447.10327454929575</v>
       </c>
       <c r="H11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>415.06204379552469</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>367.5444033381039</v>
       </c>
       <c r="I11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>376.94061244870687</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>454.18191293356568</v>
       </c>
       <c r="J11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>466.78428712882084</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>404.58670931574665</v>
       </c>
       <c r="K11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>416.86083994246326</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>458.38469053969271</v>
       </c>
       <c r="L11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>368.28209801361487</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>398.2305493155061</v>
       </c>
       <c r="M11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>413.0849439622807</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>377.848836866824</v>
       </c>
       <c r="N11" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>393.77021203607586</v>
-      </c>
-      <c r="P11" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>374.79691174763849</v>
+      </c>
+      <c r="O11" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>353.55935795557724</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="3"/>
         <v>Ensuite</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="R11" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4163938025016347</v>
-      </c>
-      <c r="R11" s="28">
+        <v>1.2350919186444633</v>
+      </c>
+      <c r="S11" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2541706698204835</v>
-      </c>
-      <c r="S11" s="28">
+        <v>1.015316031320729</v>
+      </c>
+      <c r="T11" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1465802314793501</v>
-      </c>
-      <c r="T11" s="28">
+        <v>1.2546461683247672</v>
+      </c>
+      <c r="U11" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0412724100793007</v>
-      </c>
-      <c r="U11" s="28">
+        <v>1.1176428434136647</v>
+      </c>
+      <c r="V11" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2894593567094499</v>
-      </c>
-      <c r="V11" s="28">
+        <v>1.2662560512146208</v>
+      </c>
+      <c r="W11" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1515492816090145</v>
-      </c>
-      <c r="W11" s="28">
+        <v>1.1000843903743263</v>
+      </c>
+      <c r="X11" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0173538619160631</v>
-      </c>
-      <c r="X11" s="28">
+        <v>1.0437813173116686</v>
+      </c>
+      <c r="Y11" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1411186297300573</v>
-      </c>
-      <c r="Y11" s="28">
+        <v>1.0353505849382278</v>
+      </c>
+      <c r="Z11" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0877630166742427</v>
-      </c>
-      <c r="AA11" t="str">
+        <v>0.97668330926955038</v>
+      </c>
+      <c r="AB11" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Ensuite</v>
       </c>
-      <c r="AB11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AD11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+      <c r="AE11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AE11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+      <c r="AF11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AF11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+      <c r="AG11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AG11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+      <c r="AH11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AH11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+      <c r="AI11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>95</v>
       </c>
-      <c r="AI11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
-        <v>95</v>
-      </c>
       <c r="AJ11" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E11,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <v>298</v>
+      </c>
+      <c r="AK11" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F11,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
+        <f t="shared" si="13"/>
         <v>704</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
-      <c r="E12" t="str">
+      <c r="D12">
+        <v>704</v>
+      </c>
+      <c r="F12" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bath</v>
       </c>
-      <c r="F12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,F$28,8,23,1))</f>
-        <v>876.35753280292465</v>
-      </c>
       <c r="G12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
-        <v>802.49574929540643</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,G$28,8,23,1))</f>
+        <v>764.18161721435752</v>
       </c>
       <c r="H12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
-        <v>733.65275088120518</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,H$28,8,23,1))</f>
+        <v>721.7538623374104</v>
       </c>
       <c r="I12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
-        <v>740.20537501265335</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,I$28,8,23,1))</f>
+        <v>770.4604067585899</v>
       </c>
       <c r="J12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
-        <v>712.50076830719354</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,J$28,8,23,1))</f>
+        <v>717.70744639344491</v>
       </c>
       <c r="K12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
-        <v>707.15007171757793</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,K$28,8,23,1))</f>
+        <v>702.42528909514169</v>
       </c>
       <c r="L12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
-        <v>725.92898692617655</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,L$28,8,23,1))</f>
+        <v>610.24553067013733</v>
       </c>
       <c r="M12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
-        <v>633.00829450024935</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,M$28,8,23,1))</f>
+        <v>521.17833214482823</v>
       </c>
       <c r="N12" s="27">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
-        <v>543.13916660172356</v>
-      </c>
-      <c r="P12" t="str">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,N$28,8,23,1))</f>
+        <v>435.50088626707605</v>
+      </c>
+      <c r="O12" s="27">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,O$28,8,23,1))</f>
+        <v>353.55935795557724</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" si="3"/>
         <v>Bath</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="R12" s="28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2448260409132452</v>
-      </c>
-      <c r="R12" s="28">
+        <v>1.0854852517249396</v>
+      </c>
+      <c r="S12" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1399087347946113</v>
-      </c>
-      <c r="S12" s="28">
+        <v>1.0252185544565489</v>
+      </c>
+      <c r="T12" s="28">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0421203847744391</v>
-      </c>
-      <c r="T12" s="28">
+        <v>1.0944039868729971</v>
+      </c>
+      <c r="U12" s="28">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0514280895066099</v>
-      </c>
-      <c r="U12" s="28">
+        <v>1.0194708045361434</v>
+      </c>
+      <c r="V12" s="28">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0120749549818091</v>
-      </c>
-      <c r="V12" s="28">
+        <v>0.99776319473741715</v>
+      </c>
+      <c r="W12" s="28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0044745336897414</v>
-      </c>
-      <c r="W12" s="28">
+        <v>0.86682603788371781</v>
+      </c>
+      <c r="X12" s="28">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0311491291565007</v>
-      </c>
-      <c r="X12" s="28">
+        <v>0.74031013088754005</v>
+      </c>
+      <c r="Y12" s="28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89915950923330878</v>
-      </c>
-      <c r="Y12" s="28">
+        <v>0.61860921344755126</v>
+      </c>
+      <c r="Z12" s="28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77150449801381182</v>
-      </c>
-      <c r="AA12" t="str">
+        <v>0.50221499709599038</v>
+      </c>
+      <c r="AB12" t="str">
         <f>Rooms[[#This Row],[Room Name]]</f>
         <v>Bath</v>
       </c>
-      <c r="AB12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,F$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,F$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,F$28,6,23,1))</f>
-        <v>0</v>
-      </c>
       <c r="AC12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
-        <v>95</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,G$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,G$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,G$28,6,23,1))</f>
+        <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
-        <v>95</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,H$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,H$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,H$28,6,23,1))</f>
+        <v>194.65</v>
       </c>
       <c r="AE12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
-        <v>194.65</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,I$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,I$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,I$28,6,23,1))</f>
+        <v>298</v>
       </c>
       <c r="AF12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
-        <v>285</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,J$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,J$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,J$28,6,23,1))</f>
+        <v>316</v>
       </c>
       <c r="AG12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
-        <v>298</v>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,K$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,K$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,K$28,6,23,1))</f>
+        <v>331</v>
       </c>
       <c r="AH12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,L$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,L$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,L$28,6,23,1))</f>
         <v>331</v>
       </c>
       <c r="AI12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,M$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,M$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,M$28,6,23,1))</f>
         <v>331</v>
       </c>
       <c r="AJ12" s="1">
-        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$E12,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,N$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,N$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,N$28,6,23,1))</f>
         <v>331</v>
       </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.45">
-      <c r="E28" t="s">
+      <c r="AK12" s="1">
+        <f ca="1">SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,O$28,5,23,1))+SUMIF(OFFSET(CalcResults!$A$1,O$28,1,23,1),"="&amp;$F12,OFFSET(CalcResults!$A$1,O$28,6,23,1))</f>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F28" t="s">
         <v>121</v>
-      </c>
-      <c r="F28">
-        <f>VLOOKUP(F1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>7</v>
       </c>
       <c r="G28">
         <f>VLOOKUP(G1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <f>VLOOKUP(H1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I28">
         <f>VLOOKUP(I1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J28">
         <f>VLOOKUP(J1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="K28">
         <f>VLOOKUP(K1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L28">
         <f>VLOOKUP(L1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="M28">
         <f>VLOOKUP(M1,Scenarios!$A$2:$B$11,2,FALSE)</f>
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="N28">
         <f>VLOOKUP(N1,Scenarios!$A$2:$B$11,2,FALSE)</f>
+        <v>182</v>
+      </c>
+      <c r="O28">
+        <f>VLOOKUP(O1,Scenarios!$A$2:$B$11,2,FALSE)</f>
         <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q2:Y12">
+  <conditionalFormatting sqref="R2:Z12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16371,7 +17417,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16382,7 +17428,7 @@
       </c>
       <c r="B1">
         <f>SUM(Rooms[Heat Loss])</f>
-        <v>8140</v>
+        <v>7819</v>
       </c>
       <c r="C1" t="s">
         <v>111</v>
@@ -16394,7 +17440,7 @@
       </c>
       <c r="B2" s="26">
         <f>SUMPRODUCT(Rooms[Heat Loss],Rooms[Room Temperature])/B1</f>
-        <v>19.69029484029484</v>
+        <v>19.37063563115488</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -16406,7 +17452,7 @@
       </c>
       <c r="B3" s="27">
         <f>(B1/B2)*1800*24/1000</f>
-        <v>17858.950455143844</v>
+        <v>17437.775736007767</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -16479,13 +17525,13 @@
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="44.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
